--- a/sweetest/testcase/UT-TestCase.xlsx
+++ b/sweetest/testcase/UT-TestCase.xlsx
@@ -1457,9 +1457,9 @@
   <dimension ref="A1:P1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="M101" activeCellId="0" sqref="M101"/>
+      <selection pane="bottomLeft" activeCell="M104" activeCellId="0" sqref="M104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3842,7 +3842,7 @@
       <c r="O86" s="17"/>
       <c r="P86" s="17"/>
     </row>
-    <row r="87" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="17" t="s">
         <v>154</v>
       </c>

--- a/sweetest/testcase/UT-TestCase.xlsx
+++ b/sweetest/testcase/UT-TestCase.xlsx
@@ -1456,10 +1456,8 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="M104" activeCellId="0" sqref="M104"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G52" activeCellId="0" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2646,7 +2644,7 @@
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
     </row>
-    <row r="44" s="9" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" s="9" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>

--- a/sweetest/testcase/UT-TestCase.xlsx
+++ b/sweetest/testcase/UT-TestCase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Advertising" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="326">
   <si>
     <t xml:space="preserve">用例编号</t>
   </si>
@@ -628,7 +628,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">https://&lt;host&gt;/ExManage/ExIdeas?</t>
+      <t xml:space="preserve">https://&lt;host&gt;/ExManage/ExIdeas?customer_id*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,,</t>
     </r>
     <r>
       <rPr>
@@ -636,8 +646,70 @@
         <color rgb="FF0070C0"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">customer_id</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">标签页名=广告创意</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,,等待时间=2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIPPET_007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新建产品</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新建产品按钮</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">产品资质 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 有米优投</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,,</t>
     </r>
     <r>
       <rPr>
@@ -647,7 +719,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">*</t>
+      <t xml:space="preserve">标签页名=新建产品</t>
     </r>
     <r>
       <rPr>
@@ -657,6 +729,450 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">,,等待时间=1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">调用</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">mytime=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">time.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">getTime()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">mydate=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">time.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">getDate()</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">产品名称</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">自动化测试产品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_&lt;mydate&gt;_&lt;mytime&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">productName=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">自动化测试产品_&lt;mydate&gt;_&lt;mytime&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">公司名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自动化测试公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">联系人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">陈商</t>
+  </si>
+  <si>
+    <t xml:space="preserve">联系电话</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13610262325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">联系地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">广州</t>
+  </si>
+  <si>
+    <t xml:space="preserve">网站网址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.google.com.hk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一级分类</t>
+  </si>
+  <si>
+    <t xml:space="preserve">其他</t>
+  </si>
+  <si>
+    <t xml:space="preserve">资质1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">等待时间=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上传图标</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flag=sendkeys.pressEnter()</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">确认</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">按</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">钮</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">资质2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">确认按</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">钮</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">today=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">time.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">getFDate()</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">日期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;today&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">问号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">保存并提审按钮</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">审核详情 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 有米优投</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,,等待时间=1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">产品管理面包屑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIPPET_008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查新建产品</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">innerText=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">productName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,,等待时间=2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">账户余额</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">innerText=^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">0.0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">获取</t>
+  </si>
+  <si>
+    <t xml:space="preserve">产品ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">productID=innerText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIPPET_009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新建推广计划</t>
+  </si>
+  <si>
+    <t xml:space="preserve">推广计划</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新建推广计划按钮</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">推广计划管理 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 有米优投</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">,,</t>
     </r>
     <r>
@@ -667,6 +1183,1508 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">标签页名=新建推广计划</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,,等待时间=1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">投放产品</t>
+  </si>
+  <si>
+    <t xml:space="preserve">搜索产品名称</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">productID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,,等待时间=2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">产品#[&lt;productID&gt;]&lt;productName&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">推广计划名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自动化测试推广计划_&lt;mydate&gt;_&lt;mytime&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">campaignName=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">自动化测试推广计划_&lt;mydate&gt;_&lt;mytime&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">下一步:推广标的物</t>
+  </si>
+  <si>
+    <t xml:space="preserve">添加标的物</t>
+  </si>
+  <si>
+    <t xml:space="preserve">渠道号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#A01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">itunes链接</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://itunes.apple.com/cn/app/id1339119477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">确认按钮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">保存并返回列表</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">推广计划 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 有米优投</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">标签页名=推广计划</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,,等待时间=2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIPPET_010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查新建推广计划</t>
+  </si>
+  <si>
+    <t xml:space="preserve">查询按钮</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">text=&lt;campaign</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,,等待时间=3</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">innerText=&lt;productName&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在投订单/总数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">innerText=0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">推广计划ID</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">campaignID=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">innerText</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIPPET_011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新建广告组</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新建广告组按钮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">判断</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新建广告组窗体</t>
+  </si>
+  <si>
+    <t xml:space="preserve">搜索产品</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&lt;productID&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,,等待时间=2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">搜索推广计划</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">campaignID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,,等待时间=2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">推广计划#[&lt;campaignID&gt;]&lt;campaignName&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">广告组名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">广告组_&lt;mydate&gt;_&lt;mytime&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">groupName=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">广告组_&lt;mydate&gt;_&lt;mytime&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">确定按钮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">存在=否</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIPPET_012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查新建广告组</t>
+  </si>
+  <si>
+    <t xml:space="preserve">刷新</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">text=&lt;group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,,等待时间=3</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">推广计划列</t>
+  </si>
+  <si>
+    <t xml:space="preserve">innerText=*&lt;campaignName&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">广告组ID</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">groupID=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">innerText</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIPPET_013</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">刷新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">广告订单第1步</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">新建广告订单</t>
+  </si>
+  <si>
+    <t xml:space="preserve">产品搜索框</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;productID&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,,等待时间=2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIPPET_014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新建广告订单按钮</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">广告投放 - 有米优投,,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">标签页名=新建广告订单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,,等待时间=10</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">^6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">value=,,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">等待时间=2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">下一步:投放媒体</t>
+  </si>
+  <si>
+    <t xml:space="preserve">媒体:微博</t>
+  </si>
+  <si>
+    <t xml:space="preserve">广告位:标准图片创意_592x296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">下一步:受众定向</t>
+  </si>
+  <si>
+    <t xml:space="preserve">下一步:基本信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">每日预算</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">计划出价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">广告订单名称</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">自动测试&lt;mytime&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,,清除文本=否</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">orderName=&lt;mydate&gt;-微博-自动测试&lt;mytime&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">广告订单 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 有米优投</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">标签页名=广告订单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,,等待时间=2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIPPET_015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查新建广告订单</t>
+  </si>
+  <si>
+    <t xml:space="preserve">innerText=&lt;orderName&gt;,,等待时间=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">投放媒体</t>
+  </si>
+  <si>
+    <t xml:space="preserve">innerText=*微博</t>
+  </si>
+  <si>
+    <t xml:space="preserve">广告位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">innerText=*标准图片创意_592x296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">innerText=*&lt;groupName&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在投创意/总数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">广告ID</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">orderID=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">innerText</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIPPET_016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新建广告创意</t>
+  </si>
+  <si>
+    <t xml:space="preserve">广告创意</t>
+  </si>
+  <si>
+    <t xml:space="preserve">设置广告创意按钮</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">创意管理 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 有米优投</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">标签页名=设置创意</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,,等待时间=1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">设置创意</t>
+  </si>
+  <si>
+    <t xml:space="preserve">创意名称</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">创意</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_&lt;mydate&gt;_&lt;mytime&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">creativeName=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">创意_&lt;mydate&gt;_&lt;mytime&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">上传图片</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flag=sendkeys.pressDown()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">标题</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自动化测试标题</t>
+  </si>
+  <si>
+    <t xml:space="preserve">描述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自动化测试描述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">保存并自动提审</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIPPET_017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查新建广告创意</t>
+  </si>
+  <si>
+    <t xml:space="preserve">innerText=&lt;creativeName&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">innerText=&lt;campaignName&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">innerText=&lt;groupName&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">innerText=&lt;orderName&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIPPET_018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">编辑产品</t>
+  </si>
+  <si>
+    <t xml:space="preserve">编辑图标</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(重命名),,清除文本=否</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">productName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">=value</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">陈XX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13610888888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深圳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.zhihu.com/topics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIPPET_019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">编辑推广计划</t>
+  </si>
+  <si>
+    <t xml:space="preserve">编辑链接</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campaignName=value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">保存</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIPPET_020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查编辑推广计划</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIPPET_021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">编辑广告组</t>
+  </si>
+  <si>
+    <t xml:space="preserve">编辑广告组窗体</t>
+  </si>
+  <si>
+    <t xml:space="preserve">重命名,,清除文本=否</t>
+  </si>
+  <si>
+    <t xml:space="preserve">groupName=value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIPPET_022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查编辑广告组</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIPPET_023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">编辑广告订单</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">广告投放 – 有米优投,,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">标签页名=新建广告订单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,,等待时间=2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">重命名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,,清除文本=否</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">orderName=value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIPPET_024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查编辑广告订单</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIPPET_025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">编辑广告创意</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">creativeName=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">value</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">自动化测试标题1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自动化测试描述1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIPPET_026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查编辑广告创意</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIPPET_027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">复制广告订单</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media=innerText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slot=innerText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">复制链接</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">复制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,,清除文本=否</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIPPET_028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查复制广告订单</t>
+  </si>
+  <si>
+    <t xml:space="preserve">innerText=&lt;media&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">innerText=&lt;slot&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVERTISING_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVERTISING_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVERTISING_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVERTISING_004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVERTISING_005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVERTISING_006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVERTISING_007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVERTISING_008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVERTISING_009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVERTISING_010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVERTISING_011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">投放管理新建编辑权限检查</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">推广计划</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 有米优投</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">标签页名=推广计划</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,,等待时间=1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">disabled=&lt;disabled&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class=&lt;class&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">删除链接</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">广告组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 有米优投</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">标签页名=广告组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,,等待时间=1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">广告订单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 有米优投</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">标签页名=广告订单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,,等待时间=1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">广告创意 - 有米优投,,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">标签页名=广告创意</t>
     </r>
     <r>
@@ -677,19 +2695,35 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">,,等待时间=2</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">SNIPPET_007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新建产品</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新建产品按钮</t>
-  </si>
-  <si>
+      <t xml:space="preserve">,,等待时间=1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">存在=&lt;exist&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">定向管理模块权限检查</t>
+  </si>
+  <si>
+    <t xml:space="preserve">定向管理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">内容定向包</t>
+  </si>
+  <si>
+    <t xml:space="preserve">精准人群包</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">内容定向包</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -698,7 +2732,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">产品资质 </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -728,17 +2762,29 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">,,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
+      <t xml:space="preserve">,等待时间=1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">标签页名=新建产品</t>
+      <t xml:space="preserve">精准人群包</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -748,13 +2794,104 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 有米优投</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,等待时间=1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">账号管理模块权限检查</t>
+  </si>
+  <si>
+    <t xml:space="preserve">账号管理</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">账号列表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 有米优投</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">,,等待时间=1</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">调用</t>
-  </si>
-  <si>
+    <t xml:space="preserve">财务管理模块权限检查</t>
+  </si>
+  <si>
+    <t xml:space="preserve">财务管理</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">财务管理</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -763,7 +2900,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">mytime=</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -773,7 +2910,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">time.</t>
+      <t xml:space="preserve">-</t>
     </r>
     <r>
       <rPr>
@@ -783,8 +2920,24 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">getTime()</t>
-    </r>
+      <t xml:space="preserve"> 有米优投</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,,等待时间=1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">其余模块权限检查</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数据概览</t>
   </si>
   <si>
     <r>
@@ -795,7 +2948,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">mydate=</t>
+      <t xml:space="preserve">产品列表 </t>
     </r>
     <r>
       <rPr>
@@ -805,7 +2958,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">time.</t>
+      <t xml:space="preserve">-</t>
     </r>
     <r>
       <rPr>
@@ -815,11 +2968,21 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">getDate()</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">产品名称</t>
+      <t xml:space="preserve"> 有米优投</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,,等待时间=1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">监测配置</t>
   </si>
   <si>
     <r>
@@ -830,7 +2993,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">自动化测试产品</t>
+      <t xml:space="preserve">disabled=</t>
     </r>
     <r>
       <rPr>
@@ -840,7 +3003,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">_&lt;mydate&gt;_&lt;mytime&gt;</t>
+      <t xml:space="preserve">&lt;disabled&gt;,,class=&lt;class&gt;,,exist=&lt;exist&gt;</t>
     </r>
   </si>
   <si>
@@ -852,7 +3015,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">productName=</t>
+      <t xml:space="preserve">监测配置 </t>
     </r>
     <r>
       <rPr>
@@ -862,67 +3025,42 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">自动化测试产品_&lt;mydate&gt;_&lt;mytime&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">公司名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自动化测试公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">联系人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">陈商</t>
-  </si>
-  <si>
-    <t xml:space="preserve">联系电话</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13610262325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">联系地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">广州</t>
-  </si>
-  <si>
-    <t xml:space="preserve">网站网址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.google.com.hk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">一级分类</t>
-  </si>
-  <si>
-    <t xml:space="preserve">其他</t>
-  </si>
-  <si>
-    <t xml:space="preserve">资质1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">等待时间=2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">上传图标</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flag=sendkeys.pressEnter()</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 有米优投</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">确认</t>
+      <t xml:space="preserve">,,等待时间=1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">代理商权限检查</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">disabled=None</t>
     </r>
     <r>
       <rPr>
@@ -932,8 +3070,16 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">按</t>
-    </r>
+      <t xml:space="preserve">,,class=f258-col switch-link,,exist=是</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">客户权限检查</t>
+  </si>
+  <si>
+    <t xml:space="preserve">财务专员权限检查</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -942,13 +3088,8 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">钮</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">资质2</t>
-  </si>
-  <si>
+      <t xml:space="preserve">disabled=true</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -956,2381 +3097,6 @@
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">确认按</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">钮</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">today=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">time.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">getFDate()</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">日期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;today&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">问号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">保存并提审按钮</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">审核详情 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 有米优投</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,,等待时间=1</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">产品管理面包屑</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNIPPET_008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">检查新建产品</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">innerText=&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">productName</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,,等待时间=2</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">账户余额</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">innerText=^</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">0.0</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">获取</t>
-  </si>
-  <si>
-    <t xml:space="preserve">产品ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">productID=innerText</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNIPPET_009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新建推广计划</t>
-  </si>
-  <si>
-    <t xml:space="preserve">推广计划</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新建推广计划按钮</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">推广计划管理 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 有米优投</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">标签页名=新建推广计划</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,,等待时间=1</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">投放产品</t>
-  </si>
-  <si>
-    <t xml:space="preserve">搜索产品名称</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">productID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,,等待时间=2</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">产品#[&lt;productID&gt;]&lt;productName&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">推广计划名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自动化测试推广计划_&lt;mydate&gt;_&lt;mytime&gt;</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">campaignName=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">自动化测试推广计划_&lt;mydate&gt;_&lt;mytime&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">下一步:推广标的物</t>
-  </si>
-  <si>
-    <t xml:space="preserve">添加标的物</t>
-  </si>
-  <si>
-    <t xml:space="preserve">渠道号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#A01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">itunes链接</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://itunes.apple.com/cn/app/id1339119477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">确认按钮</t>
-  </si>
-  <si>
-    <t xml:space="preserve">保存并返回列表</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">推广计划 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 有米优投</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">标签页名=推广计划</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,,等待时间=2</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">SNIPPET_010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">检查新建推广计划</t>
-  </si>
-  <si>
-    <t xml:space="preserve">查询按钮</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">text=&lt;campaign</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,,等待时间=3</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">innerText=&lt;productName&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">在投订单/总数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">innerText=0/0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">推广计划ID</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">campaignID=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">innerText</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">SNIPPET_011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新建广告组</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新建广告组按钮</t>
-  </si>
-  <si>
-    <t xml:space="preserve">判断</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新建广告组窗体</t>
-  </si>
-  <si>
-    <t xml:space="preserve">搜索产品</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">&lt;productID&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,,等待时间=2</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">搜索推广计划</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">campaignID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,,等待时间=2</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">推广计划#[&lt;campaignID&gt;]&lt;campaignName&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">广告组名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">广告组_&lt;mydate&gt;_&lt;mytime&gt;</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">groupName=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">广告组_&lt;mydate&gt;_&lt;mytime&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">确定按钮</t>
-  </si>
-  <si>
-    <t xml:space="preserve">存在=否</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNIPPET_012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">检查新建广告组</t>
-  </si>
-  <si>
-    <t xml:space="preserve">刷新</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">text=&lt;group</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,,等待时间=3</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">推广计划列</t>
-  </si>
-  <si>
-    <t xml:space="preserve">innerText=*&lt;campaignName&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">广告组ID</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">groupID=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">innerText</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">SNIPPET_013</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF262626"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">刷新</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF262626"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">广告订单第1步</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">新建广告订单</t>
-  </si>
-  <si>
-    <t xml:space="preserve">产品搜索框</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;productID&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,,等待时间=2</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">SNIPPET_014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新建广告订单按钮</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">广告投放 - 有米优投,,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">标签页名=新建广告订单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,,等待时间=10</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">^6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">value=,,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">等待时间=2</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">下一步:投放媒体</t>
-  </si>
-  <si>
-    <t xml:space="preserve">媒体:微博</t>
-  </si>
-  <si>
-    <t xml:space="preserve">广告位:标准图片创意_592x296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">下一步:受众定向</t>
-  </si>
-  <si>
-    <t xml:space="preserve">下一步:基本信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每日预算</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">计划出价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">广告订单名称</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">自动测试&lt;mytime&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,,清除文本=否</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">orderName=&lt;mydate&gt;-微博-自动测试&lt;mytime&gt;</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">广告订单 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 有米优投</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">标签页名=广告订单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,,等待时间=2</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">SNIPPET_015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">检查新建广告订单</t>
-  </si>
-  <si>
-    <t xml:space="preserve">innerText=&lt;orderName&gt;,,等待时间=3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">投放媒体</t>
-  </si>
-  <si>
-    <t xml:space="preserve">innerText=*微博</t>
-  </si>
-  <si>
-    <t xml:space="preserve">广告位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">innerText=*标准图片创意_592x296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">innerText=*&lt;groupName&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">在投创意/总数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">广告ID</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">orderID=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">innerText</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">SNIPPET_016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新建广告创意</t>
-  </si>
-  <si>
-    <t xml:space="preserve">广告创意</t>
-  </si>
-  <si>
-    <t xml:space="preserve">设置广告创意按钮</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">创意管理 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 有米优投</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">标签页名=设置创意</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,,等待时间=1</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">设置创意</t>
-  </si>
-  <si>
-    <t xml:space="preserve">创意名称</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">创意</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">_&lt;mydate&gt;_&lt;mytime&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">creativeName=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">创意_&lt;mydate&gt;_&lt;mytime&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">上传图片</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flag=sendkeys.pressDown()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">标题</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自动化测试标题</t>
-  </si>
-  <si>
-    <t xml:space="preserve">描述</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自动化测试描述</t>
-  </si>
-  <si>
-    <t xml:space="preserve">保存并自动提审</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNIPPET_017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">检查新建广告创意</t>
-  </si>
-  <si>
-    <t xml:space="preserve">innerText=&lt;creativeName&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">innerText=&lt;campaignName&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">innerText=&lt;groupName&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">innerText=&lt;orderName&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNIPPET_018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">编辑产品</t>
-  </si>
-  <si>
-    <t xml:space="preserve">编辑图标</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(重命名),,清除文本=否</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">productName</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">=value</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">陈XX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13610888888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">深圳</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.zhihu.com/topics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNIPPET_019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">编辑推广计划</t>
-  </si>
-  <si>
-    <t xml:space="preserve">编辑链接</t>
-  </si>
-  <si>
-    <t xml:space="preserve">campaignName=value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">保存</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNIPPET_020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">检查编辑推广计划</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNIPPET_021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">编辑广告组</t>
-  </si>
-  <si>
-    <t xml:space="preserve">编辑广告组窗体</t>
-  </si>
-  <si>
-    <t xml:space="preserve">重命名,,清除文本=否</t>
-  </si>
-  <si>
-    <t xml:space="preserve">groupName=value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNIPPET_022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">检查编辑广告组</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNIPPET_023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">编辑广告订单</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">广告投放 – 有米优投,,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">标签页名=新建广告订单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,,等待时间=2</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">重命名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,,清除文本=否</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">orderName=value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNIPPET_024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">检查编辑广告订单</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNIPPET_025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">编辑广告创意</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">creativeName=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">value</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">自动化测试标题1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自动化测试描述1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNIPPET_026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">检查编辑广告创意</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNIPPET_027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">复制广告订单</t>
-  </si>
-  <si>
-    <t xml:space="preserve">media=innerText</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slot=innerText</t>
-  </si>
-  <si>
-    <t xml:space="preserve">复制链接</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">复制</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,,清除文本=否</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">SNIPPET_028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">检查复制广告订单</t>
-  </si>
-  <si>
-    <t xml:space="preserve">innerText=&lt;media&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">innerText=&lt;slot&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADVERTISING_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADVERTISING_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADVERTISING_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADVERTISING_004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADVERTISING_005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADVERTISING_006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADVERTISING_007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADVERTISING_008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADVERTISING_009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADVERTISING_010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADVERTISING_011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">投放管理新建编辑权限检查</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">推广计划</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 有米优投</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">标签页名=推广计划</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">,,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">等待时间=1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">disabled=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">&lt;disabled&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">class=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">&lt;class&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">删除链接</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">广告组</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 有米优投</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">标签页名=广告组</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">,,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">等待时间=1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">广告订单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 有米优投</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">标签页名=广告订单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">,,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">等待时间=1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">广告创意 - 有米优投</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">标签页名=广告创意</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,,等待时间=1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://&lt;host&gt;/ExManage/ExIdeas?customer_id*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">标签页名=广告创意</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,,等待时间=2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">存在=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">&lt;exist&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">定向管理模块权限检查</t>
-  </si>
-  <si>
-    <t xml:space="preserve">定向管理</t>
-  </si>
-  <si>
-    <t xml:space="preserve">内容定向包</t>
-  </si>
-  <si>
-    <t xml:space="preserve">精准人群包</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">内容定向包</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 有米优投</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,等待时间=1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">精准人群包</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 有米优投</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,等待时间=1</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">账号管理模块权限检查</t>
-  </si>
-  <si>
-    <t xml:space="preserve">账号管理</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">账号列表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 有米优投</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">等待时间=1</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">财务管理模块权限检查</t>
-  </si>
-  <si>
-    <t xml:space="preserve">财务管理</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">财务管理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 有米优投</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">等待时间=1</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">其余模块权限检查</t>
-  </si>
-  <si>
-    <t xml:space="preserve">数据概览</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">产品列表 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 有米优投</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">等待时间=1</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">监测配置</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">disabled=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">&lt;disabled&gt;,,class=&lt;class&gt;,,exist=&lt;exist&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">监测配置 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 有米优投</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">等待时间=1</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">代理商权限检查</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">disabled=None</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">,,class=f258-col switch-link,,exist=是</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">客户权限检查</t>
-  </si>
-  <si>
-    <t xml:space="preserve">财务专员权限检查</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">disabled=true</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">,,class=f258-col switch-link dropdown-item-disabled,,exist=否</t>
     </r>
@@ -3364,7 +3130,7 @@
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="0_ ;[RED]\-0\ "/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3445,12 +3211,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF0070C0"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FFC0504D"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
@@ -3462,24 +3222,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFC0504D"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFC0504D"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFC0504D"/>
-      <name val="DejaVu Sans"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3549,7 +3291,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3606,15 +3348,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3622,19 +3364,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3663,18 +3393,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3755,10 +3473,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P257"/>
+  <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B202" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K222" activeCellId="0" sqref="K222"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3831,7 +3549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="9" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -3861,7 +3579,7 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" s="9" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="9" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -7769,17 +7487,17 @@
       <c r="E151" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F151" s="18" t="s">
+      <c r="F151" s="11" t="s">
         <v>71</v>
       </c>
       <c r="G151" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="H151" s="19" t="s">
+      <c r="H151" s="12" t="s">
         <v>227</v>
       </c>
       <c r="I151" s="6"/>
-      <c r="J151" s="20" t="s">
+      <c r="J151" s="18" t="s">
         <v>228</v>
       </c>
       <c r="K151" s="6"/>
@@ -7803,7 +7521,7 @@
       <c r="G152" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H152" s="19" t="s">
+      <c r="H152" s="12" t="s">
         <v>227</v>
       </c>
       <c r="I152" s="6"/>
@@ -8087,13 +7805,13 @@
       <c r="E163" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F163" s="18" t="s">
+      <c r="F163" s="11" t="s">
         <v>115</v>
       </c>
       <c r="G163" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="H163" s="19" t="s">
+      <c r="H163" s="12" t="s">
         <v>227</v>
       </c>
       <c r="I163" s="6"/>
@@ -8285,7 +8003,7 @@
       <c r="G170" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="H170" s="19" t="s">
+      <c r="H170" s="12" t="s">
         <v>243</v>
       </c>
       <c r="I170" s="6"/>
@@ -8473,7 +8191,7 @@
       <c r="E177" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F177" s="18" t="s">
+      <c r="F177" s="11" t="s">
         <v>169</v>
       </c>
       <c r="G177" s="7" t="s">
@@ -8531,7 +8249,7 @@
       <c r="G179" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="H179" s="21" t="s">
+      <c r="H179" s="15" t="s">
         <v>252</v>
       </c>
       <c r="I179" s="6"/>
@@ -8779,7 +8497,7 @@
       <c r="G188" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="H188" s="21" t="s">
+      <c r="H188" s="15" t="s">
         <v>252</v>
       </c>
       <c r="I188" s="6"/>
@@ -9073,7 +8791,7 @@
       <c r="E199" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F199" s="18" t="s">
+      <c r="F199" s="11" t="s">
         <v>169</v>
       </c>
       <c r="G199" s="7" t="s">
@@ -9131,7 +8849,7 @@
       <c r="G201" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="H201" s="21" t="s">
+      <c r="H201" s="15" t="s">
         <v>270</v>
       </c>
       <c r="I201" s="6"/>
@@ -9358,1287 +9076,1289 @@
       <c r="P209" s="4"/>
     </row>
     <row r="210" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="22" t="s">
+      <c r="A210" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="B210" s="22" t="s">
+      <c r="B210" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C210" s="22"/>
-      <c r="D210" s="23" t="n">
+      <c r="C210" s="19"/>
+      <c r="D210" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="E210" s="24" t="s">
+      <c r="E210" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F210" s="25" t="s">
+      <c r="F210" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G210" s="24" t="s">
+      <c r="G210" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H210" s="26"/>
-      <c r="I210" s="27"/>
-      <c r="J210" s="27"/>
-      <c r="K210" s="27"/>
-      <c r="L210" s="22"/>
-      <c r="M210" s="22" t="s">
+      <c r="H210" s="23"/>
+      <c r="I210" s="24"/>
+      <c r="J210" s="24"/>
+      <c r="K210" s="24"/>
+      <c r="L210" s="19"/>
+      <c r="M210" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="N210" s="22"/>
-      <c r="O210" s="22"/>
-      <c r="P210" s="22"/>
+      <c r="N210" s="19"/>
+      <c r="O210" s="19"/>
+      <c r="P210" s="19"/>
     </row>
     <row r="211" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="22"/>
-      <c r="B211" s="22"/>
-      <c r="C211" s="22"/>
-      <c r="D211" s="23" t="n">
+      <c r="A211" s="19"/>
+      <c r="B211" s="19"/>
+      <c r="C211" s="19"/>
+      <c r="D211" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="E211" s="24" t="s">
+      <c r="E211" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F211" s="25" t="s">
+      <c r="F211" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G211" s="24" t="s">
+      <c r="G211" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="H211" s="26"/>
-      <c r="I211" s="27"/>
-      <c r="J211" s="27"/>
-      <c r="K211" s="27"/>
-      <c r="L211" s="22"/>
-      <c r="M211" s="28"/>
-      <c r="N211" s="22"/>
-      <c r="O211" s="22"/>
-      <c r="P211" s="22"/>
+      <c r="H211" s="23"/>
+      <c r="I211" s="24"/>
+      <c r="J211" s="24"/>
+      <c r="K211" s="24"/>
+      <c r="L211" s="19"/>
+      <c r="M211" s="25"/>
+      <c r="N211" s="19"/>
+      <c r="O211" s="19"/>
+      <c r="P211" s="19"/>
     </row>
     <row r="212" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="28"/>
-      <c r="B212" s="22"/>
-      <c r="C212" s="22"/>
-      <c r="D212" s="23" t="n">
+      <c r="A212" s="25"/>
+      <c r="B212" s="19"/>
+      <c r="C212" s="19"/>
+      <c r="D212" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="E212" s="24" t="s">
+      <c r="E212" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F212" s="25" t="s">
+      <c r="F212" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G212" s="24" t="s">
+      <c r="G212" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="H212" s="26"/>
-      <c r="I212" s="27"/>
-      <c r="J212" s="27"/>
-      <c r="K212" s="27"/>
-      <c r="L212" s="22"/>
-      <c r="M212" s="22"/>
-      <c r="N212" s="22"/>
-      <c r="O212" s="22"/>
-      <c r="P212" s="22"/>
+      <c r="H212" s="23"/>
+      <c r="I212" s="24"/>
+      <c r="J212" s="24"/>
+      <c r="K212" s="24"/>
+      <c r="L212" s="19"/>
+      <c r="M212" s="19"/>
+      <c r="N212" s="19"/>
+      <c r="O212" s="19"/>
+      <c r="P212" s="19"/>
     </row>
     <row r="213" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="22"/>
-      <c r="B213" s="22"/>
-      <c r="C213" s="22"/>
-      <c r="D213" s="23" t="n">
+      <c r="A213" s="19"/>
+      <c r="B213" s="19"/>
+      <c r="C213" s="19"/>
+      <c r="D213" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="E213" s="24" t="s">
+      <c r="E213" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F213" s="25" t="s">
+      <c r="F213" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G213" s="24" t="s">
+      <c r="G213" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="H213" s="26"/>
-      <c r="I213" s="27"/>
-      <c r="J213" s="27"/>
-      <c r="K213" s="27"/>
-      <c r="L213" s="22"/>
-      <c r="M213" s="28"/>
-      <c r="N213" s="22"/>
-      <c r="O213" s="22"/>
-      <c r="P213" s="22"/>
-    </row>
-    <row r="214" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="22" t="s">
+      <c r="H213" s="23"/>
+      <c r="I213" s="24"/>
+      <c r="J213" s="24"/>
+      <c r="K213" s="24"/>
+      <c r="L213" s="19"/>
+      <c r="M213" s="25"/>
+      <c r="N213" s="19"/>
+      <c r="O213" s="19"/>
+      <c r="P213" s="19"/>
+    </row>
+    <row r="214" s="3" customFormat="true" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="B214" s="22" t="s">
+      <c r="B214" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C214" s="22"/>
-      <c r="D214" s="23" t="n">
+      <c r="C214" s="19"/>
+      <c r="D214" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="E214" s="24" t="s">
+      <c r="E214" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F214" s="25" t="s">
+      <c r="F214" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G214" s="24" t="s">
+      <c r="G214" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H214" s="26"/>
-      <c r="I214" s="27"/>
-      <c r="J214" s="27"/>
-      <c r="K214" s="27"/>
-      <c r="L214" s="22"/>
-      <c r="M214" s="28" t="s">
+      <c r="H214" s="23"/>
+      <c r="I214" s="24"/>
+      <c r="J214" s="24"/>
+      <c r="K214" s="24"/>
+      <c r="L214" s="19"/>
+      <c r="M214" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="N214" s="22"/>
-      <c r="O214" s="22"/>
-      <c r="P214" s="22"/>
+      <c r="N214" s="19"/>
+      <c r="O214" s="19"/>
+      <c r="P214" s="19"/>
     </row>
     <row r="215" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="22"/>
-      <c r="B215" s="22"/>
-      <c r="C215" s="22"/>
-      <c r="D215" s="23" t="n">
+      <c r="A215" s="19"/>
+      <c r="B215" s="19"/>
+      <c r="C215" s="19"/>
+      <c r="D215" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="E215" s="24" t="s">
+      <c r="E215" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F215" s="25" t="s">
+      <c r="F215" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G215" s="24" t="s">
+      <c r="G215" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="H215" s="26"/>
-      <c r="I215" s="27"/>
-      <c r="J215" s="27"/>
-      <c r="K215" s="27"/>
-      <c r="L215" s="22"/>
-      <c r="M215" s="28"/>
-      <c r="N215" s="22"/>
-      <c r="O215" s="22"/>
-      <c r="P215" s="22"/>
+      <c r="H215" s="23"/>
+      <c r="I215" s="24"/>
+      <c r="J215" s="24"/>
+      <c r="K215" s="24"/>
+      <c r="L215" s="19"/>
+      <c r="M215" s="25"/>
+      <c r="N215" s="19"/>
+      <c r="O215" s="19"/>
+      <c r="P215" s="19"/>
     </row>
     <row r="216" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="28"/>
-      <c r="B216" s="22"/>
-      <c r="C216" s="22"/>
-      <c r="D216" s="23" t="n">
+      <c r="A216" s="25"/>
+      <c r="B216" s="19"/>
+      <c r="C216" s="19"/>
+      <c r="D216" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="E216" s="24" t="s">
+      <c r="E216" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F216" s="25" t="s">
+      <c r="F216" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G216" s="24" t="s">
+      <c r="G216" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="H216" s="26"/>
-      <c r="I216" s="27"/>
-      <c r="J216" s="27"/>
-      <c r="K216" s="27"/>
-      <c r="L216" s="22"/>
-      <c r="M216" s="22"/>
-      <c r="N216" s="22"/>
-      <c r="O216" s="22"/>
-      <c r="P216" s="22"/>
+      <c r="H216" s="23"/>
+      <c r="I216" s="24"/>
+      <c r="J216" s="24"/>
+      <c r="K216" s="24"/>
+      <c r="L216" s="19"/>
+      <c r="M216" s="19"/>
+      <c r="N216" s="19"/>
+      <c r="O216" s="19"/>
+      <c r="P216" s="19"/>
     </row>
     <row r="217" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="22"/>
-      <c r="B217" s="22"/>
-      <c r="C217" s="22"/>
-      <c r="D217" s="23" t="n">
+      <c r="A217" s="19"/>
+      <c r="B217" s="19"/>
+      <c r="C217" s="19"/>
+      <c r="D217" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="E217" s="24" t="s">
+      <c r="E217" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F217" s="25" t="s">
+      <c r="F217" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G217" s="24" t="s">
+      <c r="G217" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="H217" s="26"/>
-      <c r="I217" s="27"/>
-      <c r="J217" s="27"/>
-      <c r="K217" s="27"/>
-      <c r="L217" s="22"/>
-      <c r="M217" s="28"/>
-      <c r="N217" s="22"/>
-      <c r="O217" s="22"/>
-      <c r="P217" s="22"/>
+      <c r="H217" s="23"/>
+      <c r="I217" s="24"/>
+      <c r="J217" s="24"/>
+      <c r="K217" s="24"/>
+      <c r="L217" s="19"/>
+      <c r="M217" s="25"/>
+      <c r="N217" s="19"/>
+      <c r="O217" s="19"/>
+      <c r="P217" s="19"/>
     </row>
     <row r="218" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="22" t="s">
+      <c r="A218" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="B218" s="22" t="s">
+      <c r="B218" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="C218" s="22"/>
-      <c r="D218" s="23" t="n">
+      <c r="C218" s="19"/>
+      <c r="D218" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="E218" s="24" t="s">
+      <c r="E218" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F218" s="25" t="s">
+      <c r="F218" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G218" s="24" t="s">
+      <c r="G218" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H218" s="26"/>
-      <c r="I218" s="27"/>
-      <c r="J218" s="27"/>
-      <c r="K218" s="27"/>
-      <c r="L218" s="22"/>
-      <c r="M218" s="28" t="s">
+      <c r="H218" s="23"/>
+      <c r="I218" s="24"/>
+      <c r="J218" s="24"/>
+      <c r="K218" s="24"/>
+      <c r="L218" s="19"/>
+      <c r="M218" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="N218" s="22"/>
-      <c r="O218" s="22"/>
-      <c r="P218" s="22"/>
+      <c r="N218" s="19"/>
+      <c r="O218" s="19"/>
+      <c r="P218" s="19"/>
     </row>
     <row r="219" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="22"/>
-      <c r="B219" s="22"/>
-      <c r="C219" s="22"/>
-      <c r="D219" s="23" t="n">
+      <c r="A219" s="19"/>
+      <c r="B219" s="19"/>
+      <c r="C219" s="19"/>
+      <c r="D219" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="E219" s="24" t="s">
+      <c r="E219" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F219" s="25" t="s">
+      <c r="F219" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G219" s="24" t="s">
+      <c r="G219" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="H219" s="26"/>
-      <c r="I219" s="27"/>
-      <c r="J219" s="27"/>
-      <c r="K219" s="27"/>
-      <c r="L219" s="22"/>
-      <c r="M219" s="28"/>
-      <c r="N219" s="22"/>
-      <c r="O219" s="22"/>
-      <c r="P219" s="22"/>
+      <c r="H219" s="23"/>
+      <c r="I219" s="24"/>
+      <c r="J219" s="24"/>
+      <c r="K219" s="24"/>
+      <c r="L219" s="19"/>
+      <c r="M219" s="25"/>
+      <c r="N219" s="19"/>
+      <c r="O219" s="19"/>
+      <c r="P219" s="19"/>
     </row>
     <row r="220" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="28"/>
-      <c r="B220" s="22"/>
-      <c r="C220" s="22"/>
-      <c r="D220" s="23" t="n">
+      <c r="A220" s="25"/>
+      <c r="B220" s="19"/>
+      <c r="C220" s="19"/>
+      <c r="D220" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="E220" s="24" t="s">
+      <c r="E220" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F220" s="25" t="s">
+      <c r="F220" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G220" s="24" t="s">
+      <c r="G220" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="H220" s="26"/>
-      <c r="I220" s="27"/>
-      <c r="J220" s="27"/>
-      <c r="K220" s="27"/>
-      <c r="L220" s="22"/>
-      <c r="M220" s="22"/>
-      <c r="N220" s="22"/>
-      <c r="O220" s="22"/>
-      <c r="P220" s="22"/>
+      <c r="H220" s="23"/>
+      <c r="I220" s="24"/>
+      <c r="J220" s="24"/>
+      <c r="K220" s="24"/>
+      <c r="L220" s="19"/>
+      <c r="M220" s="19"/>
+      <c r="N220" s="19"/>
+      <c r="O220" s="19"/>
+      <c r="P220" s="19"/>
     </row>
     <row r="221" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="22"/>
-      <c r="B221" s="22"/>
-      <c r="C221" s="22"/>
-      <c r="D221" s="23" t="n">
+      <c r="A221" s="19"/>
+      <c r="B221" s="19"/>
+      <c r="C221" s="19"/>
+      <c r="D221" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="E221" s="24" t="s">
+      <c r="E221" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F221" s="25" t="s">
+      <c r="F221" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G221" s="24" t="s">
+      <c r="G221" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="H221" s="26"/>
-      <c r="I221" s="27"/>
-      <c r="J221" s="27"/>
-      <c r="K221" s="27"/>
-      <c r="L221" s="22"/>
-      <c r="M221" s="28"/>
-      <c r="N221" s="22"/>
-      <c r="O221" s="22"/>
-      <c r="P221" s="22"/>
+      <c r="H221" s="23"/>
+      <c r="I221" s="24"/>
+      <c r="J221" s="24"/>
+      <c r="K221" s="24"/>
+      <c r="L221" s="19"/>
+      <c r="M221" s="25"/>
+      <c r="N221" s="19"/>
+      <c r="O221" s="19"/>
+      <c r="P221" s="19"/>
     </row>
     <row r="222" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="22" t="s">
+      <c r="A222" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="B222" s="22" t="s">
+      <c r="B222" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C222" s="22"/>
-      <c r="D222" s="23" t="n">
+      <c r="C222" s="19"/>
+      <c r="D222" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="E222" s="24" t="s">
+      <c r="E222" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F222" s="25" t="s">
+      <c r="F222" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G222" s="24" t="s">
+      <c r="G222" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H222" s="26"/>
-      <c r="I222" s="27"/>
-      <c r="J222" s="27"/>
-      <c r="K222" s="27"/>
-      <c r="L222" s="22"/>
-      <c r="M222" s="28" t="s">
+      <c r="H222" s="23"/>
+      <c r="I222" s="24"/>
+      <c r="J222" s="24"/>
+      <c r="K222" s="24"/>
+      <c r="L222" s="19"/>
+      <c r="M222" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="N222" s="22"/>
-      <c r="O222" s="22"/>
-      <c r="P222" s="22"/>
+      <c r="N222" s="19"/>
+      <c r="O222" s="19"/>
+      <c r="P222" s="19"/>
     </row>
     <row r="223" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="22"/>
-      <c r="B223" s="22"/>
-      <c r="C223" s="22"/>
-      <c r="D223" s="23" t="n">
+      <c r="A223" s="19"/>
+      <c r="B223" s="19"/>
+      <c r="C223" s="19"/>
+      <c r="D223" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="E223" s="24" t="s">
+      <c r="E223" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F223" s="25" t="s">
+      <c r="F223" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G223" s="24" t="s">
+      <c r="G223" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="H223" s="26"/>
-      <c r="I223" s="27"/>
-      <c r="J223" s="27"/>
-      <c r="K223" s="27"/>
-      <c r="L223" s="22"/>
-      <c r="M223" s="28"/>
-      <c r="N223" s="22"/>
-      <c r="O223" s="22"/>
-      <c r="P223" s="22"/>
+      <c r="H223" s="23"/>
+      <c r="I223" s="24"/>
+      <c r="J223" s="24"/>
+      <c r="K223" s="24"/>
+      <c r="L223" s="19"/>
+      <c r="M223" s="25"/>
+      <c r="N223" s="19"/>
+      <c r="O223" s="19"/>
+      <c r="P223" s="19"/>
     </row>
     <row r="224" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="28"/>
-      <c r="B224" s="22"/>
-      <c r="C224" s="22"/>
-      <c r="D224" s="23" t="n">
+      <c r="A224" s="25"/>
+      <c r="B224" s="19"/>
+      <c r="C224" s="19"/>
+      <c r="D224" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="E224" s="24" t="s">
+      <c r="E224" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F224" s="25" t="s">
+      <c r="F224" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G224" s="24" t="s">
+      <c r="G224" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="H224" s="26"/>
-      <c r="I224" s="27"/>
-      <c r="J224" s="27"/>
-      <c r="K224" s="27"/>
-      <c r="L224" s="22"/>
-      <c r="M224" s="22"/>
-      <c r="N224" s="22"/>
-      <c r="O224" s="22"/>
-      <c r="P224" s="22"/>
+      <c r="H224" s="23"/>
+      <c r="I224" s="24"/>
+      <c r="J224" s="24"/>
+      <c r="K224" s="24"/>
+      <c r="L224" s="19"/>
+      <c r="M224" s="19"/>
+      <c r="N224" s="19"/>
+      <c r="O224" s="19"/>
+      <c r="P224" s="19"/>
     </row>
     <row r="225" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="22"/>
-      <c r="B225" s="22"/>
-      <c r="C225" s="22"/>
-      <c r="D225" s="23" t="n">
+      <c r="A225" s="19"/>
+      <c r="B225" s="19"/>
+      <c r="C225" s="19"/>
+      <c r="D225" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="E225" s="24" t="s">
+      <c r="E225" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F225" s="25" t="s">
+      <c r="F225" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G225" s="24" t="s">
+      <c r="G225" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="H225" s="26"/>
-      <c r="I225" s="27"/>
-      <c r="J225" s="27"/>
-      <c r="K225" s="27"/>
-      <c r="L225" s="22"/>
-      <c r="M225" s="28"/>
-      <c r="N225" s="22"/>
-      <c r="O225" s="22"/>
-      <c r="P225" s="22"/>
+      <c r="H225" s="23"/>
+      <c r="I225" s="24"/>
+      <c r="J225" s="24"/>
+      <c r="K225" s="24"/>
+      <c r="L225" s="19"/>
+      <c r="M225" s="25"/>
+      <c r="N225" s="19"/>
+      <c r="O225" s="19"/>
+      <c r="P225" s="19"/>
     </row>
     <row r="226" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="22" t="s">
+      <c r="A226" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="B226" s="22" t="s">
+      <c r="B226" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="C226" s="22"/>
-      <c r="D226" s="23" t="n">
+      <c r="C226" s="19"/>
+      <c r="D226" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="E226" s="24" t="s">
+      <c r="E226" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F226" s="25" t="s">
+      <c r="F226" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G226" s="24" t="s">
+      <c r="G226" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H226" s="26"/>
-      <c r="I226" s="27"/>
-      <c r="J226" s="27"/>
-      <c r="K226" s="27"/>
-      <c r="L226" s="22"/>
-      <c r="M226" s="28" t="s">
+      <c r="H226" s="23"/>
+      <c r="I226" s="24"/>
+      <c r="J226" s="24"/>
+      <c r="K226" s="24"/>
+      <c r="L226" s="19"/>
+      <c r="M226" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="N226" s="22"/>
-      <c r="O226" s="22"/>
-      <c r="P226" s="22"/>
+      <c r="N226" s="19"/>
+      <c r="O226" s="19"/>
+      <c r="P226" s="19"/>
     </row>
     <row r="227" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="22"/>
-      <c r="B227" s="22"/>
-      <c r="C227" s="22"/>
-      <c r="D227" s="23" t="n">
+      <c r="A227" s="19"/>
+      <c r="B227" s="19"/>
+      <c r="C227" s="19"/>
+      <c r="D227" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="E227" s="24" t="s">
+      <c r="E227" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F227" s="25" t="s">
+      <c r="F227" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G227" s="24" t="s">
+      <c r="G227" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="H227" s="26"/>
-      <c r="I227" s="27"/>
-      <c r="J227" s="27"/>
-      <c r="K227" s="27"/>
-      <c r="L227" s="22"/>
-      <c r="M227" s="28"/>
-      <c r="N227" s="22"/>
-      <c r="O227" s="22"/>
-      <c r="P227" s="22"/>
+      <c r="H227" s="23"/>
+      <c r="I227" s="24"/>
+      <c r="J227" s="24"/>
+      <c r="K227" s="24"/>
+      <c r="L227" s="19"/>
+      <c r="M227" s="25"/>
+      <c r="N227" s="19"/>
+      <c r="O227" s="19"/>
+      <c r="P227" s="19"/>
     </row>
     <row r="228" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="28"/>
-      <c r="B228" s="22"/>
-      <c r="C228" s="22"/>
-      <c r="D228" s="23" t="n">
+      <c r="A228" s="25"/>
+      <c r="B228" s="19"/>
+      <c r="C228" s="19"/>
+      <c r="D228" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="E228" s="24" t="s">
+      <c r="E228" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F228" s="25" t="s">
+      <c r="F228" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G228" s="24" t="s">
+      <c r="G228" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="H228" s="26"/>
-      <c r="I228" s="27"/>
-      <c r="J228" s="27"/>
-      <c r="K228" s="27"/>
-      <c r="L228" s="22"/>
-      <c r="M228" s="22"/>
-      <c r="N228" s="22"/>
-      <c r="O228" s="22"/>
-      <c r="P228" s="22"/>
+      <c r="H228" s="23"/>
+      <c r="I228" s="24"/>
+      <c r="J228" s="24"/>
+      <c r="K228" s="24"/>
+      <c r="L228" s="19"/>
+      <c r="M228" s="19"/>
+      <c r="N228" s="19"/>
+      <c r="O228" s="19"/>
+      <c r="P228" s="19"/>
     </row>
     <row r="229" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="22"/>
-      <c r="B229" s="22"/>
-      <c r="C229" s="22"/>
-      <c r="D229" s="23" t="n">
+      <c r="A229" s="19"/>
+      <c r="B229" s="19"/>
+      <c r="C229" s="19"/>
+      <c r="D229" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="E229" s="24" t="s">
+      <c r="E229" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F229" s="25" t="s">
+      <c r="F229" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G229" s="24" t="s">
+      <c r="G229" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="H229" s="26"/>
-      <c r="I229" s="27"/>
-      <c r="J229" s="27"/>
-      <c r="K229" s="27"/>
-      <c r="L229" s="22"/>
-      <c r="M229" s="28"/>
-      <c r="N229" s="22"/>
-      <c r="O229" s="22"/>
-      <c r="P229" s="22"/>
+      <c r="H229" s="23"/>
+      <c r="I229" s="24"/>
+      <c r="J229" s="24"/>
+      <c r="K229" s="24"/>
+      <c r="L229" s="19"/>
+      <c r="M229" s="25"/>
+      <c r="N229" s="19"/>
+      <c r="O229" s="19"/>
+      <c r="P229" s="19"/>
     </row>
     <row r="230" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="22" t="s">
+      <c r="A230" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="B230" s="22" t="s">
+      <c r="B230" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="C230" s="22"/>
-      <c r="D230" s="23" t="n">
+      <c r="C230" s="19"/>
+      <c r="D230" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="E230" s="24" t="s">
+      <c r="E230" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F230" s="25" t="s">
+      <c r="F230" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G230" s="24" t="s">
+      <c r="G230" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H230" s="26"/>
-      <c r="I230" s="27"/>
-      <c r="J230" s="27"/>
-      <c r="K230" s="27"/>
-      <c r="L230" s="22"/>
-      <c r="M230" s="22" t="s">
+      <c r="H230" s="23"/>
+      <c r="I230" s="24"/>
+      <c r="J230" s="24"/>
+      <c r="K230" s="24"/>
+      <c r="L230" s="19"/>
+      <c r="M230" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="N230" s="22"/>
-      <c r="O230" s="22"/>
-      <c r="P230" s="22"/>
+      <c r="N230" s="19"/>
+      <c r="O230" s="19"/>
+      <c r="P230" s="19"/>
     </row>
     <row r="231" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="22"/>
-      <c r="B231" s="22"/>
-      <c r="C231" s="22"/>
-      <c r="D231" s="23" t="n">
+      <c r="A231" s="19"/>
+      <c r="B231" s="19"/>
+      <c r="C231" s="19"/>
+      <c r="D231" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="E231" s="24" t="s">
+      <c r="E231" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F231" s="25" t="s">
+      <c r="F231" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G231" s="24" t="s">
+      <c r="G231" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="H231" s="26"/>
-      <c r="I231" s="27"/>
-      <c r="J231" s="27"/>
-      <c r="K231" s="27"/>
-      <c r="L231" s="22"/>
-      <c r="M231" s="28"/>
-      <c r="N231" s="22"/>
-      <c r="O231" s="22"/>
-      <c r="P231" s="22"/>
+      <c r="H231" s="23"/>
+      <c r="I231" s="24"/>
+      <c r="J231" s="24"/>
+      <c r="K231" s="24"/>
+      <c r="L231" s="19"/>
+      <c r="M231" s="25"/>
+      <c r="N231" s="19"/>
+      <c r="O231" s="19"/>
+      <c r="P231" s="19"/>
     </row>
     <row r="232" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="22"/>
-      <c r="B232" s="22"/>
-      <c r="C232" s="22"/>
-      <c r="D232" s="23" t="n">
+      <c r="A232" s="19"/>
+      <c r="B232" s="19"/>
+      <c r="C232" s="19"/>
+      <c r="D232" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="E232" s="24" t="s">
+      <c r="E232" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F232" s="25" t="s">
+      <c r="F232" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G232" s="24" t="s">
+      <c r="G232" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="H232" s="26"/>
-      <c r="I232" s="27"/>
-      <c r="J232" s="27"/>
-      <c r="K232" s="27"/>
-      <c r="L232" s="22"/>
-      <c r="M232" s="28"/>
-      <c r="N232" s="22"/>
-      <c r="O232" s="22"/>
-      <c r="P232" s="22"/>
+      <c r="H232" s="23"/>
+      <c r="I232" s="24"/>
+      <c r="J232" s="24"/>
+      <c r="K232" s="24"/>
+      <c r="L232" s="19"/>
+      <c r="M232" s="25"/>
+      <c r="N232" s="19"/>
+      <c r="O232" s="19"/>
+      <c r="P232" s="19"/>
     </row>
     <row r="233" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="22"/>
-      <c r="B233" s="22"/>
-      <c r="C233" s="22"/>
-      <c r="D233" s="23" t="n">
+      <c r="A233" s="19"/>
+      <c r="B233" s="19"/>
+      <c r="C233" s="19"/>
+      <c r="D233" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="E233" s="24" t="s">
+      <c r="E233" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F233" s="25" t="s">
+      <c r="F233" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G233" s="24" t="s">
+      <c r="G233" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="H233" s="26"/>
-      <c r="I233" s="27"/>
-      <c r="J233" s="27"/>
-      <c r="K233" s="27"/>
-      <c r="L233" s="22"/>
-      <c r="M233" s="28"/>
-      <c r="N233" s="22"/>
-      <c r="O233" s="22"/>
-      <c r="P233" s="22"/>
+      <c r="H233" s="23"/>
+      <c r="I233" s="24"/>
+      <c r="J233" s="24"/>
+      <c r="K233" s="24"/>
+      <c r="L233" s="19"/>
+      <c r="M233" s="25"/>
+      <c r="N233" s="19"/>
+      <c r="O233" s="19"/>
+      <c r="P233" s="19"/>
     </row>
     <row r="234" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="22" t="s">
+      <c r="A234" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="B234" s="22" t="s">
+      <c r="B234" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="C234" s="22"/>
-      <c r="D234" s="23" t="n">
+      <c r="C234" s="19"/>
+      <c r="D234" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="E234" s="24" t="s">
+      <c r="E234" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F234" s="25" t="s">
+      <c r="F234" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G234" s="24" t="s">
+      <c r="G234" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H234" s="26"/>
-      <c r="I234" s="27"/>
-      <c r="J234" s="27"/>
-      <c r="K234" s="27"/>
-      <c r="L234" s="22"/>
-      <c r="M234" s="22" t="s">
+      <c r="H234" s="23"/>
+      <c r="I234" s="24"/>
+      <c r="J234" s="24"/>
+      <c r="K234" s="24"/>
+      <c r="L234" s="19"/>
+      <c r="M234" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="N234" s="22"/>
-      <c r="O234" s="22"/>
-      <c r="P234" s="22"/>
+      <c r="N234" s="19"/>
+      <c r="O234" s="19"/>
+      <c r="P234" s="19"/>
     </row>
     <row r="235" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="22"/>
-      <c r="B235" s="22"/>
-      <c r="C235" s="22"/>
-      <c r="D235" s="23" t="n">
+      <c r="A235" s="19"/>
+      <c r="B235" s="19"/>
+      <c r="C235" s="19"/>
+      <c r="D235" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="E235" s="24" t="s">
+      <c r="E235" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F235" s="25" t="s">
+      <c r="F235" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G235" s="24" t="s">
+      <c r="G235" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="H235" s="26"/>
-      <c r="I235" s="27"/>
-      <c r="J235" s="27"/>
-      <c r="K235" s="27"/>
-      <c r="L235" s="22"/>
-      <c r="M235" s="28"/>
-      <c r="N235" s="22"/>
-      <c r="O235" s="22"/>
-      <c r="P235" s="22"/>
+      <c r="H235" s="23"/>
+      <c r="I235" s="24"/>
+      <c r="J235" s="24"/>
+      <c r="K235" s="24"/>
+      <c r="L235" s="19"/>
+      <c r="M235" s="25"/>
+      <c r="N235" s="19"/>
+      <c r="O235" s="19"/>
+      <c r="P235" s="19"/>
     </row>
     <row r="236" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="22"/>
-      <c r="B236" s="22"/>
-      <c r="C236" s="22"/>
-      <c r="D236" s="23" t="n">
+      <c r="A236" s="19"/>
+      <c r="B236" s="19"/>
+      <c r="C236" s="19"/>
+      <c r="D236" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="E236" s="24" t="s">
+      <c r="E236" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F236" s="25" t="s">
+      <c r="F236" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G236" s="24" t="s">
+      <c r="G236" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="H236" s="26"/>
-      <c r="I236" s="27"/>
-      <c r="J236" s="27"/>
-      <c r="K236" s="27"/>
-      <c r="L236" s="22"/>
-      <c r="M236" s="28"/>
-      <c r="N236" s="22"/>
-      <c r="O236" s="22"/>
-      <c r="P236" s="22"/>
+      <c r="H236" s="23"/>
+      <c r="I236" s="24"/>
+      <c r="J236" s="24"/>
+      <c r="K236" s="24"/>
+      <c r="L236" s="19"/>
+      <c r="M236" s="25"/>
+      <c r="N236" s="19"/>
+      <c r="O236" s="19"/>
+      <c r="P236" s="19"/>
     </row>
     <row r="237" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="22"/>
-      <c r="B237" s="22"/>
-      <c r="C237" s="22"/>
-      <c r="D237" s="23" t="n">
+      <c r="A237" s="19"/>
+      <c r="B237" s="19"/>
+      <c r="C237" s="19"/>
+      <c r="D237" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="E237" s="24" t="s">
+      <c r="E237" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F237" s="25" t="s">
+      <c r="F237" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G237" s="24" t="s">
+      <c r="G237" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="H237" s="26"/>
-      <c r="I237" s="27"/>
-      <c r="J237" s="27"/>
-      <c r="K237" s="27"/>
-      <c r="L237" s="22"/>
-      <c r="M237" s="28"/>
-      <c r="N237" s="22"/>
-      <c r="O237" s="22"/>
-      <c r="P237" s="22"/>
+      <c r="H237" s="23"/>
+      <c r="I237" s="24"/>
+      <c r="J237" s="24"/>
+      <c r="K237" s="24"/>
+      <c r="L237" s="19"/>
+      <c r="M237" s="25"/>
+      <c r="N237" s="19"/>
+      <c r="O237" s="19"/>
+      <c r="P237" s="19"/>
     </row>
     <row r="238" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="22" t="s">
+      <c r="A238" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="B238" s="22" t="s">
+      <c r="B238" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="C238" s="22"/>
-      <c r="D238" s="23" t="n">
+      <c r="C238" s="19"/>
+      <c r="D238" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="E238" s="24" t="s">
+      <c r="E238" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F238" s="25" t="s">
+      <c r="F238" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G238" s="24" t="s">
+      <c r="G238" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H238" s="26"/>
-      <c r="I238" s="27"/>
-      <c r="J238" s="27"/>
-      <c r="K238" s="27"/>
-      <c r="L238" s="22"/>
-      <c r="M238" s="22" t="s">
+      <c r="H238" s="23"/>
+      <c r="I238" s="24"/>
+      <c r="J238" s="24"/>
+      <c r="K238" s="24"/>
+      <c r="L238" s="19"/>
+      <c r="M238" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="N238" s="22"/>
-      <c r="O238" s="22"/>
-      <c r="P238" s="22"/>
+      <c r="N238" s="19"/>
+      <c r="O238" s="19"/>
+      <c r="P238" s="19"/>
     </row>
     <row r="239" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="22"/>
-      <c r="B239" s="22"/>
-      <c r="C239" s="22"/>
-      <c r="D239" s="23" t="n">
+      <c r="A239" s="19"/>
+      <c r="B239" s="19"/>
+      <c r="C239" s="19"/>
+      <c r="D239" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="E239" s="24" t="s">
+      <c r="E239" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F239" s="25" t="s">
+      <c r="F239" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G239" s="24" t="s">
+      <c r="G239" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="H239" s="26"/>
-      <c r="I239" s="27"/>
-      <c r="J239" s="27"/>
-      <c r="K239" s="27"/>
-      <c r="L239" s="22"/>
-      <c r="M239" s="28"/>
-      <c r="N239" s="22"/>
-      <c r="O239" s="22"/>
-      <c r="P239" s="22"/>
+      <c r="H239" s="23"/>
+      <c r="I239" s="24"/>
+      <c r="J239" s="24"/>
+      <c r="K239" s="24"/>
+      <c r="L239" s="19"/>
+      <c r="M239" s="25"/>
+      <c r="N239" s="19"/>
+      <c r="O239" s="19"/>
+      <c r="P239" s="19"/>
     </row>
     <row r="240" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="22"/>
-      <c r="B240" s="22"/>
-      <c r="C240" s="22"/>
-      <c r="D240" s="23" t="n">
+      <c r="A240" s="19"/>
+      <c r="B240" s="19"/>
+      <c r="C240" s="19"/>
+      <c r="D240" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="E240" s="24" t="s">
+      <c r="E240" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F240" s="25" t="s">
+      <c r="F240" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G240" s="24" t="s">
+      <c r="G240" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="H240" s="26"/>
-      <c r="I240" s="27"/>
-      <c r="J240" s="27"/>
-      <c r="K240" s="27"/>
-      <c r="L240" s="22"/>
-      <c r="M240" s="28"/>
-      <c r="N240" s="22"/>
-      <c r="O240" s="22"/>
-      <c r="P240" s="22"/>
+      <c r="H240" s="23"/>
+      <c r="I240" s="24"/>
+      <c r="J240" s="24"/>
+      <c r="K240" s="24"/>
+      <c r="L240" s="19"/>
+      <c r="M240" s="25"/>
+      <c r="N240" s="19"/>
+      <c r="O240" s="19"/>
+      <c r="P240" s="19"/>
     </row>
     <row r="241" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="22"/>
-      <c r="B241" s="22"/>
-      <c r="C241" s="22"/>
-      <c r="D241" s="23" t="n">
+      <c r="A241" s="19"/>
+      <c r="B241" s="19"/>
+      <c r="C241" s="19"/>
+      <c r="D241" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="E241" s="24" t="s">
+      <c r="E241" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F241" s="25" t="s">
+      <c r="F241" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G241" s="24" t="s">
+      <c r="G241" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="H241" s="26"/>
-      <c r="I241" s="27"/>
-      <c r="J241" s="27"/>
-      <c r="K241" s="27"/>
-      <c r="L241" s="22"/>
-      <c r="M241" s="28"/>
-      <c r="N241" s="22"/>
-      <c r="O241" s="22"/>
-      <c r="P241" s="22"/>
+      <c r="H241" s="23"/>
+      <c r="I241" s="24"/>
+      <c r="J241" s="24"/>
+      <c r="K241" s="24"/>
+      <c r="L241" s="19"/>
+      <c r="M241" s="25"/>
+      <c r="N241" s="19"/>
+      <c r="O241" s="19"/>
+      <c r="P241" s="19"/>
     </row>
     <row r="242" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="22" t="s">
+      <c r="A242" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="B242" s="22" t="s">
+      <c r="B242" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="C242" s="22"/>
-      <c r="D242" s="23" t="n">
+      <c r="C242" s="19"/>
+      <c r="D242" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="E242" s="24" t="s">
+      <c r="E242" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F242" s="25" t="s">
+      <c r="F242" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G242" s="24" t="s">
+      <c r="G242" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H242" s="26"/>
-      <c r="I242" s="27"/>
-      <c r="J242" s="27"/>
-      <c r="K242" s="27"/>
-      <c r="L242" s="22"/>
-      <c r="M242" s="22" t="s">
+      <c r="H242" s="23"/>
+      <c r="I242" s="24"/>
+      <c r="J242" s="24"/>
+      <c r="K242" s="24"/>
+      <c r="L242" s="19"/>
+      <c r="M242" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="N242" s="22"/>
-      <c r="O242" s="22"/>
-      <c r="P242" s="22"/>
+      <c r="N242" s="19"/>
+      <c r="O242" s="19"/>
+      <c r="P242" s="19"/>
     </row>
     <row r="243" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="22"/>
-      <c r="B243" s="22"/>
-      <c r="C243" s="22"/>
-      <c r="D243" s="23" t="n">
+      <c r="A243" s="19"/>
+      <c r="B243" s="19"/>
+      <c r="C243" s="19"/>
+      <c r="D243" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="E243" s="24" t="s">
+      <c r="E243" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F243" s="25" t="s">
+      <c r="F243" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G243" s="24" t="s">
+      <c r="G243" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="H243" s="26"/>
-      <c r="I243" s="27"/>
-      <c r="J243" s="27"/>
-      <c r="K243" s="27"/>
-      <c r="L243" s="22"/>
-      <c r="M243" s="28"/>
-      <c r="N243" s="22"/>
-      <c r="O243" s="22"/>
-      <c r="P243" s="22"/>
+      <c r="H243" s="23"/>
+      <c r="I243" s="24"/>
+      <c r="J243" s="24"/>
+      <c r="K243" s="24"/>
+      <c r="L243" s="19"/>
+      <c r="M243" s="25"/>
+      <c r="N243" s="19"/>
+      <c r="O243" s="19"/>
+      <c r="P243" s="19"/>
     </row>
     <row r="244" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="22"/>
-      <c r="B244" s="22"/>
-      <c r="C244" s="22"/>
-      <c r="D244" s="23" t="n">
+      <c r="A244" s="19"/>
+      <c r="B244" s="19"/>
+      <c r="C244" s="19"/>
+      <c r="D244" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="E244" s="24" t="s">
+      <c r="E244" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F244" s="25" t="s">
+      <c r="F244" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G244" s="24" t="s">
+      <c r="G244" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="H244" s="26"/>
-      <c r="I244" s="27"/>
-      <c r="J244" s="27"/>
-      <c r="K244" s="27"/>
-      <c r="L244" s="22"/>
-      <c r="M244" s="28"/>
-      <c r="N244" s="22"/>
-      <c r="O244" s="22"/>
-      <c r="P244" s="22"/>
+      <c r="H244" s="23"/>
+      <c r="I244" s="24"/>
+      <c r="J244" s="24"/>
+      <c r="K244" s="24"/>
+      <c r="L244" s="19"/>
+      <c r="M244" s="25"/>
+      <c r="N244" s="19"/>
+      <c r="O244" s="19"/>
+      <c r="P244" s="19"/>
     </row>
     <row r="245" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="22"/>
-      <c r="B245" s="22"/>
-      <c r="C245" s="22"/>
-      <c r="D245" s="23" t="n">
+      <c r="A245" s="19"/>
+      <c r="B245" s="19"/>
+      <c r="C245" s="19"/>
+      <c r="D245" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="E245" s="24" t="s">
+      <c r="E245" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F245" s="25" t="s">
+      <c r="F245" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G245" s="24" t="s">
+      <c r="G245" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="H245" s="26"/>
-      <c r="I245" s="27"/>
-      <c r="J245" s="27"/>
-      <c r="K245" s="27"/>
-      <c r="L245" s="22"/>
-      <c r="M245" s="28"/>
-      <c r="N245" s="22"/>
-      <c r="O245" s="22"/>
-      <c r="P245" s="22"/>
+      <c r="H245" s="23"/>
+      <c r="I245" s="24"/>
+      <c r="J245" s="24"/>
+      <c r="K245" s="24"/>
+      <c r="L245" s="19"/>
+      <c r="M245" s="25"/>
+      <c r="N245" s="19"/>
+      <c r="O245" s="19"/>
+      <c r="P245" s="19"/>
     </row>
     <row r="246" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="22" t="s">
+      <c r="A246" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="B246" s="22" t="s">
+      <c r="B246" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="C246" s="22"/>
-      <c r="D246" s="23" t="n">
+      <c r="C246" s="19"/>
+      <c r="D246" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="E246" s="24" t="s">
+      <c r="E246" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F246" s="25" t="s">
+      <c r="F246" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G246" s="24" t="s">
+      <c r="G246" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H246" s="26"/>
-      <c r="I246" s="27"/>
-      <c r="J246" s="27"/>
-      <c r="K246" s="27"/>
-      <c r="L246" s="22"/>
-      <c r="M246" s="22" t="s">
+      <c r="H246" s="23"/>
+      <c r="I246" s="24"/>
+      <c r="J246" s="24"/>
+      <c r="K246" s="24"/>
+      <c r="L246" s="19"/>
+      <c r="M246" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="N246" s="22"/>
-      <c r="O246" s="22"/>
-      <c r="P246" s="22"/>
+      <c r="N246" s="19"/>
+      <c r="O246" s="19"/>
+      <c r="P246" s="19"/>
     </row>
     <row r="247" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="22"/>
-      <c r="B247" s="22"/>
-      <c r="C247" s="22"/>
-      <c r="D247" s="23" t="n">
+      <c r="A247" s="19"/>
+      <c r="B247" s="19"/>
+      <c r="C247" s="19"/>
+      <c r="D247" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="E247" s="24" t="s">
+      <c r="E247" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F247" s="25" t="s">
+      <c r="F247" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G247" s="24" t="s">
+      <c r="G247" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="H247" s="26"/>
-      <c r="I247" s="27"/>
-      <c r="J247" s="27"/>
-      <c r="K247" s="27"/>
-      <c r="L247" s="22"/>
-      <c r="M247" s="28"/>
-      <c r="N247" s="22"/>
-      <c r="O247" s="22"/>
-      <c r="P247" s="22"/>
+      <c r="H247" s="23"/>
+      <c r="I247" s="24"/>
+      <c r="J247" s="24"/>
+      <c r="K247" s="24"/>
+      <c r="L247" s="19"/>
+      <c r="M247" s="25"/>
+      <c r="N247" s="19"/>
+      <c r="O247" s="19"/>
+      <c r="P247" s="19"/>
     </row>
     <row r="248" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="22"/>
-      <c r="B248" s="22"/>
-      <c r="C248" s="22"/>
-      <c r="D248" s="23" t="n">
+      <c r="A248" s="19"/>
+      <c r="B248" s="19"/>
+      <c r="C248" s="19"/>
+      <c r="D248" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="E248" s="24" t="s">
+      <c r="E248" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F248" s="25" t="s">
+      <c r="F248" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G248" s="24" t="s">
+      <c r="G248" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="H248" s="26"/>
-      <c r="I248" s="27"/>
-      <c r="J248" s="27"/>
-      <c r="K248" s="27"/>
-      <c r="L248" s="22"/>
-      <c r="M248" s="28"/>
-      <c r="N248" s="22"/>
-      <c r="O248" s="22"/>
-      <c r="P248" s="22"/>
+      <c r="H248" s="23"/>
+      <c r="I248" s="24"/>
+      <c r="J248" s="24"/>
+      <c r="K248" s="24"/>
+      <c r="L248" s="19"/>
+      <c r="M248" s="25"/>
+      <c r="N248" s="19"/>
+      <c r="O248" s="19"/>
+      <c r="P248" s="19"/>
     </row>
     <row r="249" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="22"/>
-      <c r="B249" s="22"/>
-      <c r="C249" s="22"/>
-      <c r="D249" s="23" t="n">
+      <c r="A249" s="19"/>
+      <c r="B249" s="19"/>
+      <c r="C249" s="19"/>
+      <c r="D249" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="E249" s="24" t="s">
+      <c r="E249" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F249" s="25" t="s">
+      <c r="F249" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G249" s="24" t="s">
+      <c r="G249" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="H249" s="26"/>
-      <c r="I249" s="27"/>
-      <c r="J249" s="27"/>
-      <c r="K249" s="27"/>
-      <c r="L249" s="22"/>
-      <c r="M249" s="28"/>
-      <c r="N249" s="22"/>
-      <c r="O249" s="22"/>
-      <c r="P249" s="22"/>
+      <c r="H249" s="23"/>
+      <c r="I249" s="24"/>
+      <c r="J249" s="24"/>
+      <c r="K249" s="24"/>
+      <c r="L249" s="19"/>
+      <c r="M249" s="25"/>
+      <c r="N249" s="19"/>
+      <c r="O249" s="19"/>
+      <c r="P249" s="19"/>
     </row>
     <row r="250" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="22" t="s">
+      <c r="A250" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="B250" s="22" t="s">
+      <c r="B250" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="C250" s="22"/>
-      <c r="D250" s="23" t="n">
+      <c r="C250" s="19"/>
+      <c r="D250" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="E250" s="24" t="s">
+      <c r="E250" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F250" s="25" t="s">
+      <c r="F250" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G250" s="24" t="s">
+      <c r="G250" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H250" s="26"/>
-      <c r="I250" s="27"/>
-      <c r="J250" s="27"/>
-      <c r="K250" s="27"/>
-      <c r="L250" s="22"/>
-      <c r="M250" s="22" t="s">
+      <c r="H250" s="23"/>
+      <c r="I250" s="24"/>
+      <c r="J250" s="24"/>
+      <c r="K250" s="24"/>
+      <c r="L250" s="19"/>
+      <c r="M250" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="N250" s="22"/>
-      <c r="O250" s="22"/>
-      <c r="P250" s="22"/>
+      <c r="N250" s="19"/>
+      <c r="O250" s="19"/>
+      <c r="P250" s="19"/>
     </row>
     <row r="251" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="22"/>
-      <c r="B251" s="22"/>
-      <c r="C251" s="22"/>
-      <c r="D251" s="23" t="n">
+      <c r="A251" s="19"/>
+      <c r="B251" s="19"/>
+      <c r="C251" s="19"/>
+      <c r="D251" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="E251" s="24" t="s">
+      <c r="E251" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F251" s="25" t="s">
+      <c r="F251" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G251" s="24" t="s">
+      <c r="G251" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="H251" s="26"/>
-      <c r="I251" s="27"/>
-      <c r="J251" s="27"/>
-      <c r="K251" s="27"/>
-      <c r="L251" s="22"/>
-      <c r="M251" s="28"/>
-      <c r="N251" s="22"/>
-      <c r="O251" s="22"/>
-      <c r="P251" s="22"/>
+      <c r="H251" s="23"/>
+      <c r="I251" s="24"/>
+      <c r="J251" s="24"/>
+      <c r="K251" s="24"/>
+      <c r="L251" s="19"/>
+      <c r="M251" s="25"/>
+      <c r="N251" s="19"/>
+      <c r="O251" s="19"/>
+      <c r="P251" s="19"/>
     </row>
     <row r="252" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="22"/>
-      <c r="B252" s="22"/>
-      <c r="C252" s="22"/>
-      <c r="D252" s="23" t="n">
+      <c r="A252" s="19"/>
+      <c r="B252" s="19"/>
+      <c r="C252" s="19"/>
+      <c r="D252" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="E252" s="24" t="s">
+      <c r="E252" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F252" s="25" t="s">
+      <c r="F252" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G252" s="24" t="s">
+      <c r="G252" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="H252" s="26"/>
-      <c r="I252" s="27"/>
-      <c r="J252" s="27"/>
-      <c r="K252" s="27"/>
-      <c r="L252" s="22"/>
-      <c r="M252" s="28"/>
-      <c r="N252" s="22"/>
-      <c r="O252" s="22"/>
-      <c r="P252" s="22"/>
+      <c r="H252" s="23"/>
+      <c r="I252" s="24"/>
+      <c r="J252" s="24"/>
+      <c r="K252" s="24"/>
+      <c r="L252" s="19"/>
+      <c r="M252" s="25"/>
+      <c r="N252" s="19"/>
+      <c r="O252" s="19"/>
+      <c r="P252" s="19"/>
     </row>
     <row r="253" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="22"/>
-      <c r="B253" s="22"/>
-      <c r="C253" s="22"/>
-      <c r="D253" s="23" t="n">
+      <c r="A253" s="19"/>
+      <c r="B253" s="19"/>
+      <c r="C253" s="19"/>
+      <c r="D253" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="E253" s="24" t="s">
+      <c r="E253" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F253" s="25" t="s">
+      <c r="F253" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G253" s="24" t="s">
+      <c r="G253" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="H253" s="26"/>
-      <c r="I253" s="27"/>
-      <c r="J253" s="27"/>
-      <c r="K253" s="27"/>
-      <c r="L253" s="22"/>
-      <c r="M253" s="28"/>
-      <c r="N253" s="22"/>
-      <c r="O253" s="22"/>
-      <c r="P253" s="22"/>
+      <c r="H253" s="23"/>
+      <c r="I253" s="24"/>
+      <c r="J253" s="24"/>
+      <c r="K253" s="24"/>
+      <c r="L253" s="19"/>
+      <c r="M253" s="25"/>
+      <c r="N253" s="19"/>
+      <c r="O253" s="19"/>
+      <c r="P253" s="19"/>
     </row>
     <row r="254" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="22"/>
-      <c r="B254" s="22"/>
-      <c r="C254" s="22"/>
-      <c r="D254" s="23"/>
-      <c r="E254" s="24"/>
-      <c r="F254" s="25"/>
-      <c r="G254" s="24"/>
-      <c r="H254" s="26"/>
-      <c r="I254" s="27"/>
-      <c r="J254" s="27"/>
-      <c r="K254" s="27"/>
-      <c r="L254" s="22"/>
-      <c r="M254" s="28"/>
-      <c r="N254" s="22"/>
-      <c r="O254" s="22"/>
-      <c r="P254" s="22"/>
+      <c r="A254" s="19"/>
+      <c r="B254" s="19"/>
+      <c r="C254" s="19"/>
+      <c r="D254" s="20"/>
+      <c r="E254" s="21"/>
+      <c r="F254" s="22"/>
+      <c r="G254" s="21"/>
+      <c r="H254" s="23"/>
+      <c r="I254" s="24"/>
+      <c r="J254" s="24"/>
+      <c r="K254" s="24"/>
+      <c r="L254" s="19"/>
+      <c r="M254" s="25"/>
+      <c r="N254" s="19"/>
+      <c r="O254" s="19"/>
+      <c r="P254" s="19"/>
     </row>
     <row r="255" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="22"/>
-      <c r="B255" s="22"/>
-      <c r="C255" s="22"/>
-      <c r="D255" s="23"/>
-      <c r="E255" s="24"/>
-      <c r="F255" s="25"/>
-      <c r="G255" s="24"/>
-      <c r="H255" s="26"/>
-      <c r="I255" s="27"/>
-      <c r="J255" s="27"/>
-      <c r="K255" s="27"/>
-      <c r="L255" s="22"/>
-      <c r="M255" s="28"/>
-      <c r="N255" s="22"/>
-      <c r="O255" s="22"/>
-      <c r="P255" s="22"/>
+      <c r="A255" s="19"/>
+      <c r="B255" s="19"/>
+      <c r="C255" s="19"/>
+      <c r="D255" s="20"/>
+      <c r="E255" s="21"/>
+      <c r="F255" s="22"/>
+      <c r="G255" s="21"/>
+      <c r="H255" s="23"/>
+      <c r="I255" s="24"/>
+      <c r="J255" s="24"/>
+      <c r="K255" s="24"/>
+      <c r="L255" s="19"/>
+      <c r="M255" s="25"/>
+      <c r="N255" s="19"/>
+      <c r="O255" s="19"/>
+      <c r="P255" s="19"/>
     </row>
     <row r="256" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="28"/>
-      <c r="B256" s="28"/>
-      <c r="C256" s="22"/>
-      <c r="D256" s="23"/>
-      <c r="E256" s="24"/>
-      <c r="F256" s="25"/>
-      <c r="G256" s="24"/>
-      <c r="H256" s="26"/>
-      <c r="I256" s="27"/>
-      <c r="J256" s="27"/>
-      <c r="K256" s="27"/>
-      <c r="L256" s="22"/>
-      <c r="M256" s="22"/>
-      <c r="N256" s="22"/>
-      <c r="O256" s="22"/>
-      <c r="P256" s="22"/>
+      <c r="A256" s="25"/>
+      <c r="B256" s="25"/>
+      <c r="C256" s="19"/>
+      <c r="D256" s="20"/>
+      <c r="E256" s="21"/>
+      <c r="F256" s="22"/>
+      <c r="G256" s="21"/>
+      <c r="H256" s="23"/>
+      <c r="I256" s="24"/>
+      <c r="J256" s="24"/>
+      <c r="K256" s="24"/>
+      <c r="L256" s="19"/>
+      <c r="M256" s="19"/>
+      <c r="N256" s="19"/>
+      <c r="O256" s="19"/>
+      <c r="P256" s="19"/>
     </row>
     <row r="257" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="22"/>
-      <c r="B257" s="22"/>
-      <c r="C257" s="22"/>
-      <c r="D257" s="23"/>
-      <c r="E257" s="24"/>
-      <c r="F257" s="25"/>
-      <c r="G257" s="24"/>
-      <c r="H257" s="26"/>
-      <c r="I257" s="27"/>
-      <c r="J257" s="27"/>
-      <c r="K257" s="27"/>
-      <c r="L257" s="22"/>
-      <c r="M257" s="28"/>
-      <c r="N257" s="22"/>
-      <c r="O257" s="22"/>
-      <c r="P257" s="22"/>
-    </row>
+      <c r="A257" s="19"/>
+      <c r="B257" s="19"/>
+      <c r="C257" s="19"/>
+      <c r="D257" s="20"/>
+      <c r="E257" s="21"/>
+      <c r="F257" s="22"/>
+      <c r="G257" s="21"/>
+      <c r="H257" s="23"/>
+      <c r="I257" s="24"/>
+      <c r="J257" s="24"/>
+      <c r="K257" s="24"/>
+      <c r="L257" s="19"/>
+      <c r="M257" s="25"/>
+      <c r="N257" s="19"/>
+      <c r="O257" s="19"/>
+      <c r="P257" s="19"/>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="3">
     <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="G2:G3" type="none">
@@ -10675,8 +10395,8 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K91" activeCellId="0" sqref="K91"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M78" activeCellId="0" sqref="M78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11065,7 +10785,7 @@
       <c r="E13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="11" t="s">
         <v>28</v>
       </c>
       <c r="G13" s="7" t="s">
@@ -11119,7 +10839,7 @@
       <c r="G15" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="12" t="s">
         <v>289</v>
       </c>
       <c r="I15" s="6"/>
@@ -11141,7 +10861,7 @@
       <c r="E16" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="11" t="s">
         <v>116</v>
       </c>
       <c r="G16" s="7" t="s">
@@ -11221,7 +10941,7 @@
       <c r="E19" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="11" t="s">
         <v>28</v>
       </c>
       <c r="G19" s="12" t="s">
@@ -11275,7 +10995,7 @@
       <c r="G21" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="29" t="s">
+      <c r="H21" s="14" t="s">
         <v>293</v>
       </c>
       <c r="I21" s="6"/>
@@ -11297,7 +11017,7 @@
       <c r="E22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="11" t="s">
         <v>60</v>
       </c>
       <c r="G22" s="12" t="s">
@@ -11377,7 +11097,7 @@
       <c r="E25" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="11" t="s">
         <v>28</v>
       </c>
       <c r="G25" s="12" t="s">
@@ -11431,7 +11151,7 @@
       <c r="G27" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="29" t="s">
+      <c r="H27" s="14" t="s">
         <v>294</v>
       </c>
       <c r="I27" s="6"/>
@@ -11453,7 +11173,7 @@
       <c r="E28" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="11" t="s">
         <v>64</v>
       </c>
       <c r="G28" s="12" t="s">
@@ -11559,7 +11279,7 @@
       <c r="E32" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F32" s="11" t="s">
         <v>28</v>
       </c>
       <c r="G32" s="12" t="s">
@@ -11613,7 +11333,7 @@
       <c r="G34" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H34" s="19" t="s">
+      <c r="H34" s="12" t="s">
         <v>295</v>
       </c>
       <c r="I34" s="6"/>
@@ -11635,7 +11355,7 @@
       <c r="E35" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="18" t="s">
+      <c r="F35" s="11" t="s">
         <v>204</v>
       </c>
       <c r="G35" s="12" t="s">
@@ -11663,7 +11383,7 @@
       <c r="E36" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F36" s="18" t="s">
+      <c r="F36" s="11" t="s">
         <v>28</v>
       </c>
       <c r="G36" s="12" t="s">
@@ -11693,7 +11413,7 @@
       <c r="G37" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H37" s="29" t="s">
+      <c r="H37" s="14" t="s">
         <v>294</v>
       </c>
       <c r="I37" s="6"/>
@@ -11715,7 +11435,7 @@
       <c r="E38" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="18" t="s">
+      <c r="F38" s="11" t="s">
         <v>64</v>
       </c>
       <c r="G38" s="12" t="s">
@@ -11746,7 +11466,7 @@
         <v>68</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>296</v>
+        <v>69</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
@@ -11767,14 +11487,14 @@
       <c r="E40" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F40" s="18" t="s">
+      <c r="F40" s="11" t="s">
         <v>204</v>
       </c>
       <c r="G40" s="12" t="s">
         <v>205</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
@@ -11790,7 +11510,7 @@
         <v>51</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>35</v>
@@ -11801,11 +11521,11 @@
       <c r="E41" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F41" s="18" t="s">
+      <c r="F41" s="11" t="s">
         <v>28</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="6"/>
@@ -11829,7 +11549,7 @@
       </c>
       <c r="F42" s="11"/>
       <c r="G42" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="6"/>
@@ -11853,9 +11573,9 @@
       </c>
       <c r="F43" s="11"/>
       <c r="G43" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="H43" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="H43" s="12" t="s">
         <v>31</v>
       </c>
       <c r="I43" s="6"/>
@@ -11879,7 +11599,7 @@
       </c>
       <c r="F44" s="11"/>
       <c r="G44" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="6"/>
@@ -11902,8 +11622,8 @@
         <v>27</v>
       </c>
       <c r="F45" s="7"/>
-      <c r="G45" s="19" t="s">
-        <v>300</v>
+      <c r="G45" s="12" t="s">
+        <v>299</v>
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="6"/>
@@ -11929,8 +11649,8 @@
       <c r="G46" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H46" s="19" t="s">
-        <v>302</v>
+      <c r="H46" s="12" t="s">
+        <v>301</v>
       </c>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
@@ -11952,8 +11672,8 @@
         <v>27</v>
       </c>
       <c r="F47" s="7"/>
-      <c r="G47" s="19" t="s">
-        <v>301</v>
+      <c r="G47" s="12" t="s">
+        <v>300</v>
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="6"/>
@@ -11979,8 +11699,8 @@
       <c r="G48" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H48" s="19" t="s">
-        <v>303</v>
+      <c r="H48" s="12" t="s">
+        <v>302</v>
       </c>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
@@ -11996,7 +11716,7 @@
         <v>56</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>35</v>
@@ -12007,11 +11727,11 @@
       <c r="E49" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F49" s="18" t="s">
+      <c r="F49" s="11" t="s">
         <v>28</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="6"/>
@@ -12035,7 +11755,7 @@
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="6"/>
@@ -12061,8 +11781,8 @@
       <c r="G51" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H51" s="29" t="s">
-        <v>306</v>
+      <c r="H51" s="14" t="s">
+        <v>305</v>
       </c>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
@@ -12078,7 +11798,7 @@
         <v>62</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>35</v>
@@ -12089,11 +11809,11 @@
       <c r="E52" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F52" s="18" t="s">
+      <c r="F52" s="11" t="s">
         <v>28</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="6"/>
@@ -12117,7 +11837,7 @@
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="6"/>
@@ -12143,8 +11863,8 @@
       <c r="G54" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H54" s="19" t="s">
-        <v>309</v>
+      <c r="H54" s="12" t="s">
+        <v>308</v>
       </c>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
@@ -12160,7 +11880,7 @@
         <v>66</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>35</v>
@@ -12171,11 +11891,11 @@
       <c r="E55" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F55" s="18" t="s">
+      <c r="F55" s="11" t="s">
         <v>28</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="6"/>
@@ -12250,7 +11970,7 @@
         <v>22</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
@@ -12323,7 +12043,7 @@
       <c r="G61" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H61" s="19" t="s">
+      <c r="H61" s="12" t="s">
         <v>31</v>
       </c>
       <c r="I61" s="6"/>
@@ -12347,7 +12067,7 @@
       </c>
       <c r="F62" s="11"/>
       <c r="G62" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H62" s="7"/>
       <c r="I62" s="6"/>
@@ -12369,14 +12089,14 @@
       <c r="E63" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F63" s="30" t="s">
+      <c r="F63" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G63" s="31" t="s">
+      <c r="G63" s="7" t="s">
         <v>47</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
@@ -12399,7 +12119,7 @@
       </c>
       <c r="F64" s="11"/>
       <c r="G64" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H64" s="7"/>
       <c r="I64" s="6"/>
@@ -12426,7 +12146,7 @@
         <v>22</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
@@ -12442,7 +12162,7 @@
         <v>70</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>35</v>
@@ -12453,14 +12173,14 @@
       <c r="E66" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F66" s="30" t="s">
+      <c r="F66" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G66" s="31" t="s">
+      <c r="G66" s="7" t="s">
         <v>66</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
@@ -12481,10 +12201,10 @@
       <c r="E67" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F67" s="30" t="s">
+      <c r="F67" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G67" s="31" t="s">
+      <c r="G67" s="7" t="s">
         <v>51</v>
       </c>
       <c r="H67" s="7"/>
@@ -12507,10 +12227,10 @@
       <c r="E68" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F68" s="30" t="s">
+      <c r="F68" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G68" s="31" t="s">
+      <c r="G68" s="7" t="s">
         <v>56</v>
       </c>
       <c r="H68" s="7"/>
@@ -12533,13 +12253,13 @@
       <c r="E69" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F69" s="30" t="s">
+      <c r="F69" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G69" s="31" t="s">
+      <c r="G69" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H69" s="19"/>
+      <c r="H69" s="12"/>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
@@ -12554,7 +12274,7 @@
         <v>106</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>35</v>
@@ -12565,14 +12285,14 @@
       <c r="E70" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F70" s="30" t="s">
+      <c r="F70" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G70" s="31" t="s">
+      <c r="G70" s="7" t="s">
         <v>66</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
@@ -12593,10 +12313,10 @@
       <c r="E71" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F71" s="30" t="s">
+      <c r="F71" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G71" s="31" t="s">
+      <c r="G71" s="7" t="s">
         <v>51</v>
       </c>
       <c r="H71" s="7"/>
@@ -12619,11 +12339,11 @@
       <c r="E72" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F72" s="18" t="s">
+      <c r="F72" s="11" t="s">
         <v>28</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H72" s="7" t="s">
         <v>158</v>
@@ -12649,7 +12369,7 @@
       </c>
       <c r="F73" s="11"/>
       <c r="G73" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H73" s="7" t="s">
         <v>158</v>
@@ -12668,7 +12388,7 @@
         <v>114</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>35</v>
@@ -12679,14 +12399,14 @@
       <c r="E74" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F74" s="30" t="s">
+      <c r="F74" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G74" s="31" t="s">
+      <c r="G74" s="7" t="s">
         <v>66</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
@@ -12707,10 +12427,10 @@
       <c r="E75" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F75" s="30" t="s">
+      <c r="F75" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G75" s="31" t="s">
+      <c r="G75" s="7" t="s">
         <v>62</v>
       </c>
       <c r="H75" s="7"/>
@@ -12733,11 +12453,11 @@
       <c r="E76" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F76" s="18" t="s">
+      <c r="F76" s="11" t="s">
         <v>28</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H76" s="7" t="s">
         <v>158</v>
@@ -12763,7 +12483,7 @@
       </c>
       <c r="F77" s="11"/>
       <c r="G77" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H77" s="7" t="s">
         <v>158</v>
@@ -12778,940 +12498,940 @@
       <c r="P77" s="4"/>
     </row>
     <row r="78" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="22" t="s">
+      <c r="A78" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="C78" s="19"/>
+      <c r="D78" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E78" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F78" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G78" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H78" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="B78" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="C78" s="22"/>
-      <c r="D78" s="23" t="n">
+      <c r="I78" s="24"/>
+      <c r="J78" s="24"/>
+      <c r="K78" s="24"/>
+      <c r="L78" s="19"/>
+      <c r="M78" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="N78" s="19"/>
+      <c r="O78" s="19"/>
+      <c r="P78" s="19"/>
+    </row>
+    <row r="79" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="19"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E79" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F79" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G79" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H79" s="23"/>
+      <c r="I79" s="24"/>
+      <c r="J79" s="24"/>
+      <c r="K79" s="24"/>
+      <c r="L79" s="19"/>
+      <c r="M79" s="25"/>
+      <c r="N79" s="19"/>
+      <c r="O79" s="19"/>
+      <c r="P79" s="19"/>
+    </row>
+    <row r="80" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="C80" s="19"/>
+      <c r="D80" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="E78" s="24" t="s">
+      <c r="E80" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F78" s="25" t="s">
+      <c r="F80" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G78" s="24" t="s">
+      <c r="G80" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H78" s="26" t="s">
-        <v>322</v>
-      </c>
-      <c r="I78" s="27"/>
-      <c r="J78" s="27"/>
-      <c r="K78" s="27"/>
-      <c r="L78" s="22"/>
-      <c r="M78" s="22" t="s">
+      <c r="H80" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="I80" s="24"/>
+      <c r="J80" s="24"/>
+      <c r="K80" s="24"/>
+      <c r="L80" s="19"/>
+      <c r="M80" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="N78" s="22"/>
-      <c r="O78" s="22"/>
-      <c r="P78" s="22"/>
-    </row>
-    <row r="79" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="22"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="23" t="n">
+      <c r="N80" s="19"/>
+      <c r="O80" s="19"/>
+      <c r="P80" s="19"/>
+    </row>
+    <row r="81" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="19"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="E79" s="24" t="s">
+      <c r="E81" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F79" s="25" t="s">
+      <c r="F81" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G79" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="H79" s="26"/>
-      <c r="I79" s="27"/>
-      <c r="J79" s="27"/>
-      <c r="K79" s="27"/>
-      <c r="L79" s="22"/>
-      <c r="M79" s="28"/>
-      <c r="N79" s="22"/>
-      <c r="O79" s="22"/>
-      <c r="P79" s="22"/>
-    </row>
-    <row r="80" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="22" t="s">
-        <v>323</v>
-      </c>
-      <c r="B80" s="22" t="s">
+      <c r="G81" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="H81" s="23"/>
+      <c r="I81" s="24"/>
+      <c r="J81" s="24"/>
+      <c r="K81" s="24"/>
+      <c r="L81" s="19"/>
+      <c r="M81" s="25"/>
+      <c r="N81" s="19"/>
+      <c r="O81" s="19"/>
+      <c r="P81" s="19"/>
+    </row>
+    <row r="82" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="B82" s="19" t="s">
         <v>318</v>
       </c>
-      <c r="C80" s="22"/>
-      <c r="D80" s="23" t="n">
+      <c r="C82" s="19"/>
+      <c r="D82" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="E80" s="24" t="s">
+      <c r="E82" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F80" s="25" t="s">
+      <c r="F82" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G80" s="24" t="s">
+      <c r="G82" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H80" s="26" t="s">
-        <v>324</v>
-      </c>
-      <c r="I80" s="27"/>
-      <c r="J80" s="27"/>
-      <c r="K80" s="27"/>
-      <c r="L80" s="22"/>
-      <c r="M80" s="22" t="s">
+      <c r="H82" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="I82" s="24"/>
+      <c r="J82" s="24"/>
+      <c r="K82" s="24"/>
+      <c r="L82" s="19"/>
+      <c r="M82" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="N80" s="22"/>
-      <c r="O80" s="22"/>
-      <c r="P80" s="22"/>
-    </row>
-    <row r="81" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="22"/>
-      <c r="B81" s="22"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="23" t="n">
+      <c r="N82" s="19"/>
+      <c r="O82" s="19"/>
+      <c r="P82" s="19"/>
+    </row>
+    <row r="83" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="19"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="E81" s="24" t="s">
+      <c r="E83" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F81" s="25" t="s">
+      <c r="F83" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G81" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="H81" s="26"/>
-      <c r="I81" s="27"/>
-      <c r="J81" s="27"/>
-      <c r="K81" s="27"/>
-      <c r="L81" s="22"/>
-      <c r="M81" s="28"/>
-      <c r="N81" s="22"/>
-      <c r="O81" s="22"/>
-      <c r="P81" s="22"/>
-    </row>
-    <row r="82" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="B82" s="22" t="s">
-        <v>319</v>
-      </c>
-      <c r="C82" s="22"/>
-      <c r="D82" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E82" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="F82" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="G82" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="H82" s="26" t="s">
-        <v>326</v>
-      </c>
-      <c r="I82" s="27"/>
-      <c r="J82" s="27"/>
-      <c r="K82" s="27"/>
-      <c r="L82" s="22"/>
-      <c r="M82" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="N82" s="22"/>
-      <c r="O82" s="22"/>
-      <c r="P82" s="22"/>
-    </row>
-    <row r="83" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="22"/>
-      <c r="B83" s="22"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="E83" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="F83" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="G83" s="24" t="s">
+      <c r="G83" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="H83" s="26"/>
-      <c r="I83" s="27"/>
-      <c r="J83" s="27"/>
-      <c r="K83" s="27"/>
-      <c r="L83" s="22"/>
-      <c r="M83" s="28"/>
-      <c r="N83" s="22"/>
-      <c r="O83" s="22"/>
-      <c r="P83" s="22"/>
+      <c r="H83" s="23"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="19"/>
+      <c r="M83" s="25"/>
+      <c r="N83" s="19"/>
+      <c r="O83" s="19"/>
+      <c r="P83" s="19"/>
     </row>
     <row r="84" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="28"/>
-      <c r="B84" s="22"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="24"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="24"/>
-      <c r="H84" s="26"/>
-      <c r="I84" s="27"/>
-      <c r="J84" s="27"/>
-      <c r="K84" s="27"/>
-      <c r="L84" s="22"/>
-      <c r="M84" s="22"/>
-      <c r="N84" s="22"/>
-      <c r="O84" s="22"/>
-      <c r="P84" s="22"/>
+      <c r="A84" s="25"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="23"/>
+      <c r="I84" s="24"/>
+      <c r="J84" s="24"/>
+      <c r="K84" s="24"/>
+      <c r="L84" s="19"/>
+      <c r="M84" s="19"/>
+      <c r="N84" s="19"/>
+      <c r="O84" s="19"/>
+      <c r="P84" s="19"/>
     </row>
     <row r="85" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="22"/>
-      <c r="B85" s="22"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="24"/>
-      <c r="H85" s="26"/>
-      <c r="I85" s="27"/>
-      <c r="J85" s="27"/>
-      <c r="K85" s="27"/>
-      <c r="L85" s="22"/>
-      <c r="M85" s="28"/>
-      <c r="N85" s="22"/>
-      <c r="O85" s="22"/>
-      <c r="P85" s="22"/>
+      <c r="A85" s="19"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="23"/>
+      <c r="I85" s="24"/>
+      <c r="J85" s="24"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="19"/>
+      <c r="M85" s="25"/>
+      <c r="N85" s="19"/>
+      <c r="O85" s="19"/>
+      <c r="P85" s="19"/>
     </row>
     <row r="86" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="22"/>
-      <c r="B86" s="22"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="25"/>
-      <c r="G86" s="24"/>
-      <c r="H86" s="26"/>
-      <c r="I86" s="27"/>
-      <c r="J86" s="27"/>
-      <c r="K86" s="27"/>
-      <c r="L86" s="22"/>
-      <c r="M86" s="28"/>
-      <c r="N86" s="22"/>
-      <c r="O86" s="22"/>
-      <c r="P86" s="22"/>
+      <c r="A86" s="19"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="23"/>
+      <c r="I86" s="24"/>
+      <c r="J86" s="24"/>
+      <c r="K86" s="24"/>
+      <c r="L86" s="19"/>
+      <c r="M86" s="25"/>
+      <c r="N86" s="19"/>
+      <c r="O86" s="19"/>
+      <c r="P86" s="19"/>
     </row>
     <row r="87" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="22"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="24"/>
-      <c r="H87" s="26"/>
-      <c r="I87" s="27"/>
-      <c r="J87" s="27"/>
-      <c r="K87" s="27"/>
-      <c r="L87" s="22"/>
-      <c r="M87" s="28"/>
-      <c r="N87" s="22"/>
-      <c r="O87" s="22"/>
-      <c r="P87" s="22"/>
+      <c r="A87" s="19"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="23"/>
+      <c r="I87" s="24"/>
+      <c r="J87" s="24"/>
+      <c r="K87" s="24"/>
+      <c r="L87" s="19"/>
+      <c r="M87" s="25"/>
+      <c r="N87" s="19"/>
+      <c r="O87" s="19"/>
+      <c r="P87" s="19"/>
     </row>
     <row r="88" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="28"/>
-      <c r="B88" s="22"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="24"/>
-      <c r="H88" s="26"/>
-      <c r="I88" s="27"/>
-      <c r="J88" s="27"/>
-      <c r="K88" s="27"/>
-      <c r="L88" s="22"/>
-      <c r="M88" s="22"/>
-      <c r="N88" s="22"/>
-      <c r="O88" s="22"/>
-      <c r="P88" s="22"/>
+      <c r="A88" s="25"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="23"/>
+      <c r="I88" s="24"/>
+      <c r="J88" s="24"/>
+      <c r="K88" s="24"/>
+      <c r="L88" s="19"/>
+      <c r="M88" s="19"/>
+      <c r="N88" s="19"/>
+      <c r="O88" s="19"/>
+      <c r="P88" s="19"/>
     </row>
     <row r="89" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="22"/>
-      <c r="B89" s="22"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="25"/>
-      <c r="G89" s="24"/>
-      <c r="H89" s="26"/>
-      <c r="I89" s="27"/>
-      <c r="J89" s="27"/>
-      <c r="K89" s="27"/>
-      <c r="L89" s="22"/>
-      <c r="M89" s="28"/>
-      <c r="N89" s="22"/>
-      <c r="O89" s="22"/>
-      <c r="P89" s="22"/>
+      <c r="A89" s="19"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="23"/>
+      <c r="I89" s="24"/>
+      <c r="J89" s="24"/>
+      <c r="K89" s="24"/>
+      <c r="L89" s="19"/>
+      <c r="M89" s="25"/>
+      <c r="N89" s="19"/>
+      <c r="O89" s="19"/>
+      <c r="P89" s="19"/>
     </row>
     <row r="90" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="22"/>
-      <c r="B90" s="22"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="25"/>
-      <c r="G90" s="24"/>
-      <c r="H90" s="26"/>
-      <c r="I90" s="27"/>
-      <c r="J90" s="27"/>
-      <c r="K90" s="27"/>
-      <c r="L90" s="22"/>
-      <c r="M90" s="28"/>
-      <c r="N90" s="22"/>
-      <c r="O90" s="22"/>
-      <c r="P90" s="22"/>
+      <c r="A90" s="19"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="23"/>
+      <c r="I90" s="24"/>
+      <c r="J90" s="24"/>
+      <c r="K90" s="24"/>
+      <c r="L90" s="19"/>
+      <c r="M90" s="25"/>
+      <c r="N90" s="19"/>
+      <c r="O90" s="19"/>
+      <c r="P90" s="19"/>
     </row>
     <row r="91" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="22"/>
-      <c r="B91" s="22"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="25"/>
-      <c r="G91" s="24"/>
-      <c r="H91" s="26"/>
-      <c r="I91" s="27"/>
-      <c r="J91" s="27"/>
-      <c r="K91" s="27"/>
-      <c r="L91" s="22"/>
-      <c r="M91" s="28"/>
-      <c r="N91" s="22"/>
-      <c r="O91" s="22"/>
-      <c r="P91" s="22"/>
+      <c r="A91" s="19"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="23"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="24"/>
+      <c r="K91" s="24"/>
+      <c r="L91" s="19"/>
+      <c r="M91" s="25"/>
+      <c r="N91" s="19"/>
+      <c r="O91" s="19"/>
+      <c r="P91" s="19"/>
     </row>
     <row r="92" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="28"/>
-      <c r="B92" s="22"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="25"/>
-      <c r="G92" s="24"/>
-      <c r="H92" s="26"/>
-      <c r="I92" s="27"/>
-      <c r="J92" s="27"/>
-      <c r="K92" s="27"/>
-      <c r="L92" s="22"/>
-      <c r="M92" s="22"/>
-      <c r="N92" s="22"/>
-      <c r="O92" s="22"/>
-      <c r="P92" s="22"/>
+      <c r="A92" s="25"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="23"/>
+      <c r="I92" s="24"/>
+      <c r="J92" s="24"/>
+      <c r="K92" s="24"/>
+      <c r="L92" s="19"/>
+      <c r="M92" s="19"/>
+      <c r="N92" s="19"/>
+      <c r="O92" s="19"/>
+      <c r="P92" s="19"/>
     </row>
     <row r="93" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="22"/>
-      <c r="B93" s="22"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="24"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="24"/>
-      <c r="H93" s="26"/>
-      <c r="I93" s="27"/>
-      <c r="J93" s="27"/>
-      <c r="K93" s="27"/>
-      <c r="L93" s="22"/>
-      <c r="M93" s="28"/>
-      <c r="N93" s="22"/>
-      <c r="O93" s="22"/>
-      <c r="P93" s="22"/>
+      <c r="A93" s="19"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="23"/>
+      <c r="I93" s="24"/>
+      <c r="J93" s="24"/>
+      <c r="K93" s="24"/>
+      <c r="L93" s="19"/>
+      <c r="M93" s="25"/>
+      <c r="N93" s="19"/>
+      <c r="O93" s="19"/>
+      <c r="P93" s="19"/>
     </row>
     <row r="94" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="22"/>
-      <c r="B94" s="22"/>
-      <c r="C94" s="22"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="24"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="24"/>
-      <c r="H94" s="26"/>
-      <c r="I94" s="27"/>
-      <c r="J94" s="27"/>
-      <c r="K94" s="27"/>
-      <c r="L94" s="22"/>
-      <c r="M94" s="28"/>
-      <c r="N94" s="22"/>
-      <c r="O94" s="22"/>
-      <c r="P94" s="22"/>
+      <c r="A94" s="19"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="23"/>
+      <c r="I94" s="24"/>
+      <c r="J94" s="24"/>
+      <c r="K94" s="24"/>
+      <c r="L94" s="19"/>
+      <c r="M94" s="25"/>
+      <c r="N94" s="19"/>
+      <c r="O94" s="19"/>
+      <c r="P94" s="19"/>
     </row>
     <row r="95" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="22"/>
-      <c r="B95" s="22"/>
-      <c r="C95" s="22"/>
-      <c r="D95" s="23"/>
-      <c r="E95" s="24"/>
-      <c r="F95" s="25"/>
-      <c r="G95" s="24"/>
-      <c r="H95" s="26"/>
-      <c r="I95" s="27"/>
-      <c r="J95" s="27"/>
-      <c r="K95" s="27"/>
-      <c r="L95" s="22"/>
-      <c r="M95" s="28"/>
-      <c r="N95" s="22"/>
-      <c r="O95" s="22"/>
-      <c r="P95" s="22"/>
+      <c r="A95" s="19"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="22"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="23"/>
+      <c r="I95" s="24"/>
+      <c r="J95" s="24"/>
+      <c r="K95" s="24"/>
+      <c r="L95" s="19"/>
+      <c r="M95" s="25"/>
+      <c r="N95" s="19"/>
+      <c r="O95" s="19"/>
+      <c r="P95" s="19"/>
     </row>
     <row r="96" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="28"/>
-      <c r="B96" s="22"/>
-      <c r="C96" s="22"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="24"/>
-      <c r="H96" s="26"/>
-      <c r="I96" s="27"/>
-      <c r="J96" s="27"/>
-      <c r="K96" s="27"/>
-      <c r="L96" s="22"/>
-      <c r="M96" s="22"/>
-      <c r="N96" s="22"/>
-      <c r="O96" s="22"/>
-      <c r="P96" s="22"/>
+      <c r="A96" s="25"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="23"/>
+      <c r="I96" s="24"/>
+      <c r="J96" s="24"/>
+      <c r="K96" s="24"/>
+      <c r="L96" s="19"/>
+      <c r="M96" s="19"/>
+      <c r="N96" s="19"/>
+      <c r="O96" s="19"/>
+      <c r="P96" s="19"/>
     </row>
     <row r="97" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="22"/>
-      <c r="B97" s="22"/>
-      <c r="C97" s="22"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="24"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="24"/>
-      <c r="H97" s="26"/>
-      <c r="I97" s="27"/>
-      <c r="J97" s="27"/>
-      <c r="K97" s="27"/>
-      <c r="L97" s="22"/>
-      <c r="M97" s="28"/>
-      <c r="N97" s="22"/>
-      <c r="O97" s="22"/>
-      <c r="P97" s="22"/>
+      <c r="A97" s="19"/>
+      <c r="B97" s="19"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="23"/>
+      <c r="I97" s="24"/>
+      <c r="J97" s="24"/>
+      <c r="K97" s="24"/>
+      <c r="L97" s="19"/>
+      <c r="M97" s="25"/>
+      <c r="N97" s="19"/>
+      <c r="O97" s="19"/>
+      <c r="P97" s="19"/>
     </row>
     <row r="98" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="22"/>
-      <c r="B98" s="22"/>
-      <c r="C98" s="22"/>
-      <c r="D98" s="23"/>
-      <c r="E98" s="24"/>
-      <c r="F98" s="25"/>
-      <c r="G98" s="24"/>
-      <c r="H98" s="26"/>
-      <c r="I98" s="27"/>
-      <c r="J98" s="27"/>
-      <c r="K98" s="27"/>
-      <c r="L98" s="22"/>
-      <c r="M98" s="22"/>
-      <c r="N98" s="22"/>
-      <c r="O98" s="22"/>
-      <c r="P98" s="22"/>
+      <c r="A98" s="19"/>
+      <c r="B98" s="19"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="23"/>
+      <c r="I98" s="24"/>
+      <c r="J98" s="24"/>
+      <c r="K98" s="24"/>
+      <c r="L98" s="19"/>
+      <c r="M98" s="19"/>
+      <c r="N98" s="19"/>
+      <c r="O98" s="19"/>
+      <c r="P98" s="19"/>
     </row>
     <row r="99" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="22"/>
-      <c r="B99" s="22"/>
-      <c r="C99" s="22"/>
-      <c r="D99" s="23"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="25"/>
-      <c r="G99" s="24"/>
-      <c r="H99" s="26"/>
-      <c r="I99" s="27"/>
-      <c r="J99" s="27"/>
-      <c r="K99" s="27"/>
-      <c r="L99" s="22"/>
-      <c r="M99" s="28"/>
-      <c r="N99" s="22"/>
-      <c r="O99" s="22"/>
-      <c r="P99" s="22"/>
+      <c r="A99" s="19"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="23"/>
+      <c r="I99" s="24"/>
+      <c r="J99" s="24"/>
+      <c r="K99" s="24"/>
+      <c r="L99" s="19"/>
+      <c r="M99" s="25"/>
+      <c r="N99" s="19"/>
+      <c r="O99" s="19"/>
+      <c r="P99" s="19"/>
     </row>
     <row r="100" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="22"/>
-      <c r="B100" s="22"/>
-      <c r="C100" s="22"/>
-      <c r="D100" s="23"/>
-      <c r="E100" s="24"/>
-      <c r="F100" s="25"/>
-      <c r="G100" s="24"/>
-      <c r="H100" s="26"/>
-      <c r="I100" s="27"/>
-      <c r="J100" s="27"/>
-      <c r="K100" s="27"/>
-      <c r="L100" s="22"/>
-      <c r="M100" s="28"/>
-      <c r="N100" s="22"/>
-      <c r="O100" s="22"/>
-      <c r="P100" s="22"/>
+      <c r="A100" s="19"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="22"/>
+      <c r="G100" s="21"/>
+      <c r="H100" s="23"/>
+      <c r="I100" s="24"/>
+      <c r="J100" s="24"/>
+      <c r="K100" s="24"/>
+      <c r="L100" s="19"/>
+      <c r="M100" s="25"/>
+      <c r="N100" s="19"/>
+      <c r="O100" s="19"/>
+      <c r="P100" s="19"/>
     </row>
     <row r="101" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="22"/>
-      <c r="B101" s="22"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="23"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="25"/>
-      <c r="G101" s="24"/>
-      <c r="H101" s="26"/>
-      <c r="I101" s="27"/>
-      <c r="J101" s="27"/>
-      <c r="K101" s="27"/>
-      <c r="L101" s="22"/>
-      <c r="M101" s="28"/>
-      <c r="N101" s="22"/>
-      <c r="O101" s="22"/>
-      <c r="P101" s="22"/>
+      <c r="A101" s="19"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="22"/>
+      <c r="G101" s="21"/>
+      <c r="H101" s="23"/>
+      <c r="I101" s="24"/>
+      <c r="J101" s="24"/>
+      <c r="K101" s="24"/>
+      <c r="L101" s="19"/>
+      <c r="M101" s="25"/>
+      <c r="N101" s="19"/>
+      <c r="O101" s="19"/>
+      <c r="P101" s="19"/>
     </row>
     <row r="102" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="22"/>
-      <c r="B102" s="22"/>
-      <c r="C102" s="22"/>
-      <c r="D102" s="23"/>
-      <c r="E102" s="24"/>
-      <c r="F102" s="25"/>
-      <c r="G102" s="24"/>
-      <c r="H102" s="26"/>
-      <c r="I102" s="27"/>
-      <c r="J102" s="27"/>
-      <c r="K102" s="27"/>
-      <c r="L102" s="22"/>
-      <c r="M102" s="22"/>
-      <c r="N102" s="22"/>
-      <c r="O102" s="22"/>
-      <c r="P102" s="22"/>
+      <c r="A102" s="19"/>
+      <c r="B102" s="19"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="22"/>
+      <c r="G102" s="21"/>
+      <c r="H102" s="23"/>
+      <c r="I102" s="24"/>
+      <c r="J102" s="24"/>
+      <c r="K102" s="24"/>
+      <c r="L102" s="19"/>
+      <c r="M102" s="19"/>
+      <c r="N102" s="19"/>
+      <c r="O102" s="19"/>
+      <c r="P102" s="19"/>
     </row>
     <row r="103" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="22"/>
-      <c r="B103" s="22"/>
-      <c r="C103" s="22"/>
-      <c r="D103" s="23"/>
-      <c r="E103" s="24"/>
-      <c r="F103" s="25"/>
-      <c r="G103" s="24"/>
-      <c r="H103" s="26"/>
-      <c r="I103" s="27"/>
-      <c r="J103" s="27"/>
-      <c r="K103" s="27"/>
-      <c r="L103" s="22"/>
-      <c r="M103" s="28"/>
-      <c r="N103" s="22"/>
-      <c r="O103" s="22"/>
-      <c r="P103" s="22"/>
+      <c r="A103" s="19"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="22"/>
+      <c r="G103" s="21"/>
+      <c r="H103" s="23"/>
+      <c r="I103" s="24"/>
+      <c r="J103" s="24"/>
+      <c r="K103" s="24"/>
+      <c r="L103" s="19"/>
+      <c r="M103" s="25"/>
+      <c r="N103" s="19"/>
+      <c r="O103" s="19"/>
+      <c r="P103" s="19"/>
     </row>
     <row r="104" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="22"/>
-      <c r="B104" s="22"/>
-      <c r="C104" s="22"/>
-      <c r="D104" s="23"/>
-      <c r="E104" s="24"/>
-      <c r="F104" s="25"/>
-      <c r="G104" s="24"/>
-      <c r="H104" s="26"/>
-      <c r="I104" s="27"/>
-      <c r="J104" s="27"/>
-      <c r="K104" s="27"/>
-      <c r="L104" s="22"/>
-      <c r="M104" s="28"/>
-      <c r="N104" s="22"/>
-      <c r="O104" s="22"/>
-      <c r="P104" s="22"/>
+      <c r="A104" s="19"/>
+      <c r="B104" s="19"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="20"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="22"/>
+      <c r="G104" s="21"/>
+      <c r="H104" s="23"/>
+      <c r="I104" s="24"/>
+      <c r="J104" s="24"/>
+      <c r="K104" s="24"/>
+      <c r="L104" s="19"/>
+      <c r="M104" s="25"/>
+      <c r="N104" s="19"/>
+      <c r="O104" s="19"/>
+      <c r="P104" s="19"/>
     </row>
     <row r="105" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="22"/>
-      <c r="B105" s="22"/>
-      <c r="C105" s="22"/>
-      <c r="D105" s="23"/>
-      <c r="E105" s="24"/>
-      <c r="F105" s="25"/>
-      <c r="G105" s="24"/>
-      <c r="H105" s="26"/>
-      <c r="I105" s="27"/>
-      <c r="J105" s="27"/>
-      <c r="K105" s="27"/>
-      <c r="L105" s="22"/>
-      <c r="M105" s="28"/>
-      <c r="N105" s="22"/>
-      <c r="O105" s="22"/>
-      <c r="P105" s="22"/>
+      <c r="A105" s="19"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="20"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="22"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="23"/>
+      <c r="I105" s="24"/>
+      <c r="J105" s="24"/>
+      <c r="K105" s="24"/>
+      <c r="L105" s="19"/>
+      <c r="M105" s="25"/>
+      <c r="N105" s="19"/>
+      <c r="O105" s="19"/>
+      <c r="P105" s="19"/>
     </row>
     <row r="106" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="22"/>
-      <c r="B106" s="22"/>
-      <c r="C106" s="22"/>
-      <c r="D106" s="23"/>
-      <c r="E106" s="24"/>
-      <c r="F106" s="25"/>
-      <c r="G106" s="24"/>
-      <c r="H106" s="26"/>
-      <c r="I106" s="27"/>
-      <c r="J106" s="27"/>
-      <c r="K106" s="27"/>
-      <c r="L106" s="22"/>
-      <c r="M106" s="22"/>
-      <c r="N106" s="22"/>
-      <c r="O106" s="22"/>
-      <c r="P106" s="22"/>
+      <c r="A106" s="19"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="21"/>
+      <c r="F106" s="22"/>
+      <c r="G106" s="21"/>
+      <c r="H106" s="23"/>
+      <c r="I106" s="24"/>
+      <c r="J106" s="24"/>
+      <c r="K106" s="24"/>
+      <c r="L106" s="19"/>
+      <c r="M106" s="19"/>
+      <c r="N106" s="19"/>
+      <c r="O106" s="19"/>
+      <c r="P106" s="19"/>
     </row>
     <row r="107" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="22"/>
-      <c r="B107" s="22"/>
-      <c r="C107" s="22"/>
-      <c r="D107" s="23"/>
-      <c r="E107" s="24"/>
-      <c r="F107" s="25"/>
-      <c r="G107" s="24"/>
-      <c r="H107" s="26"/>
-      <c r="I107" s="27"/>
-      <c r="J107" s="27"/>
-      <c r="K107" s="27"/>
-      <c r="L107" s="22"/>
-      <c r="M107" s="28"/>
-      <c r="N107" s="22"/>
-      <c r="O107" s="22"/>
-      <c r="P107" s="22"/>
+      <c r="A107" s="19"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="20"/>
+      <c r="E107" s="21"/>
+      <c r="F107" s="22"/>
+      <c r="G107" s="21"/>
+      <c r="H107" s="23"/>
+      <c r="I107" s="24"/>
+      <c r="J107" s="24"/>
+      <c r="K107" s="24"/>
+      <c r="L107" s="19"/>
+      <c r="M107" s="25"/>
+      <c r="N107" s="19"/>
+      <c r="O107" s="19"/>
+      <c r="P107" s="19"/>
     </row>
     <row r="108" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="22"/>
-      <c r="B108" s="22"/>
-      <c r="C108" s="22"/>
-      <c r="D108" s="23"/>
-      <c r="E108" s="24"/>
-      <c r="F108" s="25"/>
-      <c r="G108" s="24"/>
-      <c r="H108" s="26"/>
-      <c r="I108" s="27"/>
-      <c r="J108" s="27"/>
-      <c r="K108" s="27"/>
-      <c r="L108" s="22"/>
-      <c r="M108" s="28"/>
-      <c r="N108" s="22"/>
-      <c r="O108" s="22"/>
-      <c r="P108" s="22"/>
+      <c r="A108" s="19"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="20"/>
+      <c r="E108" s="21"/>
+      <c r="F108" s="22"/>
+      <c r="G108" s="21"/>
+      <c r="H108" s="23"/>
+      <c r="I108" s="24"/>
+      <c r="J108" s="24"/>
+      <c r="K108" s="24"/>
+      <c r="L108" s="19"/>
+      <c r="M108" s="25"/>
+      <c r="N108" s="19"/>
+      <c r="O108" s="19"/>
+      <c r="P108" s="19"/>
     </row>
     <row r="109" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="22"/>
-      <c r="B109" s="22"/>
-      <c r="C109" s="22"/>
-      <c r="D109" s="23"/>
-      <c r="E109" s="24"/>
-      <c r="F109" s="25"/>
-      <c r="G109" s="24"/>
-      <c r="H109" s="26"/>
-      <c r="I109" s="27"/>
-      <c r="J109" s="27"/>
-      <c r="K109" s="27"/>
-      <c r="L109" s="22"/>
-      <c r="M109" s="28"/>
-      <c r="N109" s="22"/>
-      <c r="O109" s="22"/>
-      <c r="P109" s="22"/>
+      <c r="A109" s="19"/>
+      <c r="B109" s="19"/>
+      <c r="C109" s="19"/>
+      <c r="D109" s="20"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="22"/>
+      <c r="G109" s="21"/>
+      <c r="H109" s="23"/>
+      <c r="I109" s="24"/>
+      <c r="J109" s="24"/>
+      <c r="K109" s="24"/>
+      <c r="L109" s="19"/>
+      <c r="M109" s="25"/>
+      <c r="N109" s="19"/>
+      <c r="O109" s="19"/>
+      <c r="P109" s="19"/>
     </row>
     <row r="110" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="22"/>
-      <c r="B110" s="22"/>
-      <c r="C110" s="22"/>
-      <c r="D110" s="23"/>
-      <c r="E110" s="24"/>
-      <c r="F110" s="25"/>
-      <c r="G110" s="24"/>
-      <c r="H110" s="26"/>
-      <c r="I110" s="27"/>
-      <c r="J110" s="27"/>
-      <c r="K110" s="27"/>
-      <c r="L110" s="22"/>
-      <c r="M110" s="22"/>
-      <c r="N110" s="22"/>
-      <c r="O110" s="22"/>
-      <c r="P110" s="22"/>
+      <c r="A110" s="19"/>
+      <c r="B110" s="19"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="21"/>
+      <c r="F110" s="22"/>
+      <c r="G110" s="21"/>
+      <c r="H110" s="23"/>
+      <c r="I110" s="24"/>
+      <c r="J110" s="24"/>
+      <c r="K110" s="24"/>
+      <c r="L110" s="19"/>
+      <c r="M110" s="19"/>
+      <c r="N110" s="19"/>
+      <c r="O110" s="19"/>
+      <c r="P110" s="19"/>
     </row>
     <row r="111" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="22"/>
-      <c r="B111" s="22"/>
-      <c r="C111" s="22"/>
-      <c r="D111" s="23"/>
-      <c r="E111" s="24"/>
-      <c r="F111" s="25"/>
-      <c r="G111" s="24"/>
-      <c r="H111" s="26"/>
-      <c r="I111" s="27"/>
-      <c r="J111" s="27"/>
-      <c r="K111" s="27"/>
-      <c r="L111" s="22"/>
-      <c r="M111" s="28"/>
-      <c r="N111" s="22"/>
-      <c r="O111" s="22"/>
-      <c r="P111" s="22"/>
+      <c r="A111" s="19"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="21"/>
+      <c r="F111" s="22"/>
+      <c r="G111" s="21"/>
+      <c r="H111" s="23"/>
+      <c r="I111" s="24"/>
+      <c r="J111" s="24"/>
+      <c r="K111" s="24"/>
+      <c r="L111" s="19"/>
+      <c r="M111" s="25"/>
+      <c r="N111" s="19"/>
+      <c r="O111" s="19"/>
+      <c r="P111" s="19"/>
     </row>
     <row r="112" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="22"/>
-      <c r="B112" s="22"/>
-      <c r="C112" s="22"/>
-      <c r="D112" s="23"/>
-      <c r="E112" s="24"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="24"/>
-      <c r="H112" s="26"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="27"/>
-      <c r="K112" s="27"/>
-      <c r="L112" s="22"/>
-      <c r="M112" s="28"/>
-      <c r="N112" s="22"/>
-      <c r="O112" s="22"/>
-      <c r="P112" s="22"/>
+      <c r="A112" s="19"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="19"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="21"/>
+      <c r="F112" s="22"/>
+      <c r="G112" s="21"/>
+      <c r="H112" s="23"/>
+      <c r="I112" s="24"/>
+      <c r="J112" s="24"/>
+      <c r="K112" s="24"/>
+      <c r="L112" s="19"/>
+      <c r="M112" s="25"/>
+      <c r="N112" s="19"/>
+      <c r="O112" s="19"/>
+      <c r="P112" s="19"/>
     </row>
     <row r="113" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="22"/>
-      <c r="B113" s="22"/>
-      <c r="C113" s="22"/>
-      <c r="D113" s="23"/>
-      <c r="E113" s="24"/>
-      <c r="F113" s="25"/>
-      <c r="G113" s="24"/>
-      <c r="H113" s="26"/>
-      <c r="I113" s="27"/>
-      <c r="J113" s="27"/>
-      <c r="K113" s="27"/>
-      <c r="L113" s="22"/>
-      <c r="M113" s="28"/>
-      <c r="N113" s="22"/>
-      <c r="O113" s="22"/>
-      <c r="P113" s="22"/>
+      <c r="A113" s="19"/>
+      <c r="B113" s="19"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="21"/>
+      <c r="F113" s="22"/>
+      <c r="G113" s="21"/>
+      <c r="H113" s="23"/>
+      <c r="I113" s="24"/>
+      <c r="J113" s="24"/>
+      <c r="K113" s="24"/>
+      <c r="L113" s="19"/>
+      <c r="M113" s="25"/>
+      <c r="N113" s="19"/>
+      <c r="O113" s="19"/>
+      <c r="P113" s="19"/>
     </row>
     <row r="114" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="22"/>
-      <c r="B114" s="22"/>
-      <c r="C114" s="22"/>
-      <c r="D114" s="23"/>
-      <c r="E114" s="24"/>
-      <c r="F114" s="25"/>
-      <c r="G114" s="24"/>
-      <c r="H114" s="26"/>
-      <c r="I114" s="27"/>
-      <c r="J114" s="27"/>
-      <c r="K114" s="27"/>
-      <c r="L114" s="22"/>
-      <c r="M114" s="22"/>
-      <c r="N114" s="22"/>
-      <c r="O114" s="22"/>
-      <c r="P114" s="22"/>
+      <c r="A114" s="19"/>
+      <c r="B114" s="19"/>
+      <c r="C114" s="19"/>
+      <c r="D114" s="20"/>
+      <c r="E114" s="21"/>
+      <c r="F114" s="22"/>
+      <c r="G114" s="21"/>
+      <c r="H114" s="23"/>
+      <c r="I114" s="24"/>
+      <c r="J114" s="24"/>
+      <c r="K114" s="24"/>
+      <c r="L114" s="19"/>
+      <c r="M114" s="19"/>
+      <c r="N114" s="19"/>
+      <c r="O114" s="19"/>
+      <c r="P114" s="19"/>
     </row>
     <row r="115" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="22"/>
-      <c r="B115" s="22"/>
-      <c r="C115" s="22"/>
-      <c r="D115" s="23"/>
-      <c r="E115" s="24"/>
-      <c r="F115" s="25"/>
-      <c r="G115" s="24"/>
-      <c r="H115" s="26"/>
-      <c r="I115" s="27"/>
-      <c r="J115" s="27"/>
-      <c r="K115" s="27"/>
-      <c r="L115" s="22"/>
-      <c r="M115" s="28"/>
-      <c r="N115" s="22"/>
-      <c r="O115" s="22"/>
-      <c r="P115" s="22"/>
+      <c r="A115" s="19"/>
+      <c r="B115" s="19"/>
+      <c r="C115" s="19"/>
+      <c r="D115" s="20"/>
+      <c r="E115" s="21"/>
+      <c r="F115" s="22"/>
+      <c r="G115" s="21"/>
+      <c r="H115" s="23"/>
+      <c r="I115" s="24"/>
+      <c r="J115" s="24"/>
+      <c r="K115" s="24"/>
+      <c r="L115" s="19"/>
+      <c r="M115" s="25"/>
+      <c r="N115" s="19"/>
+      <c r="O115" s="19"/>
+      <c r="P115" s="19"/>
     </row>
     <row r="116" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="22"/>
-      <c r="B116" s="22"/>
-      <c r="C116" s="22"/>
-      <c r="D116" s="23"/>
-      <c r="E116" s="24"/>
-      <c r="F116" s="25"/>
-      <c r="G116" s="24"/>
-      <c r="H116" s="26"/>
-      <c r="I116" s="27"/>
-      <c r="J116" s="27"/>
-      <c r="K116" s="27"/>
-      <c r="L116" s="22"/>
-      <c r="M116" s="28"/>
-      <c r="N116" s="22"/>
-      <c r="O116" s="22"/>
-      <c r="P116" s="22"/>
+      <c r="A116" s="19"/>
+      <c r="B116" s="19"/>
+      <c r="C116" s="19"/>
+      <c r="D116" s="20"/>
+      <c r="E116" s="21"/>
+      <c r="F116" s="22"/>
+      <c r="G116" s="21"/>
+      <c r="H116" s="23"/>
+      <c r="I116" s="24"/>
+      <c r="J116" s="24"/>
+      <c r="K116" s="24"/>
+      <c r="L116" s="19"/>
+      <c r="M116" s="25"/>
+      <c r="N116" s="19"/>
+      <c r="O116" s="19"/>
+      <c r="P116" s="19"/>
     </row>
     <row r="117" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="22"/>
-      <c r="B117" s="22"/>
-      <c r="C117" s="22"/>
-      <c r="D117" s="23"/>
-      <c r="E117" s="24"/>
-      <c r="F117" s="25"/>
-      <c r="G117" s="24"/>
-      <c r="H117" s="26"/>
-      <c r="I117" s="27"/>
-      <c r="J117" s="27"/>
-      <c r="K117" s="27"/>
-      <c r="L117" s="22"/>
-      <c r="M117" s="28"/>
-      <c r="N117" s="22"/>
-      <c r="O117" s="22"/>
-      <c r="P117" s="22"/>
+      <c r="A117" s="19"/>
+      <c r="B117" s="19"/>
+      <c r="C117" s="19"/>
+      <c r="D117" s="20"/>
+      <c r="E117" s="21"/>
+      <c r="F117" s="22"/>
+      <c r="G117" s="21"/>
+      <c r="H117" s="23"/>
+      <c r="I117" s="24"/>
+      <c r="J117" s="24"/>
+      <c r="K117" s="24"/>
+      <c r="L117" s="19"/>
+      <c r="M117" s="25"/>
+      <c r="N117" s="19"/>
+      <c r="O117" s="19"/>
+      <c r="P117" s="19"/>
     </row>
     <row r="118" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="22"/>
-      <c r="B118" s="22"/>
-      <c r="C118" s="22"/>
-      <c r="D118" s="23"/>
-      <c r="E118" s="24"/>
-      <c r="F118" s="25"/>
-      <c r="G118" s="24"/>
-      <c r="H118" s="26"/>
-      <c r="I118" s="27"/>
-      <c r="J118" s="27"/>
-      <c r="K118" s="27"/>
-      <c r="L118" s="22"/>
-      <c r="M118" s="22"/>
-      <c r="N118" s="22"/>
-      <c r="O118" s="22"/>
-      <c r="P118" s="22"/>
+      <c r="A118" s="19"/>
+      <c r="B118" s="19"/>
+      <c r="C118" s="19"/>
+      <c r="D118" s="20"/>
+      <c r="E118" s="21"/>
+      <c r="F118" s="22"/>
+      <c r="G118" s="21"/>
+      <c r="H118" s="23"/>
+      <c r="I118" s="24"/>
+      <c r="J118" s="24"/>
+      <c r="K118" s="24"/>
+      <c r="L118" s="19"/>
+      <c r="M118" s="19"/>
+      <c r="N118" s="19"/>
+      <c r="O118" s="19"/>
+      <c r="P118" s="19"/>
     </row>
     <row r="119" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="22"/>
-      <c r="B119" s="22"/>
-      <c r="C119" s="22"/>
-      <c r="D119" s="23"/>
-      <c r="E119" s="24"/>
-      <c r="F119" s="25"/>
-      <c r="G119" s="24"/>
-      <c r="H119" s="26"/>
-      <c r="I119" s="27"/>
-      <c r="J119" s="27"/>
-      <c r="K119" s="27"/>
-      <c r="L119" s="22"/>
-      <c r="M119" s="28"/>
-      <c r="N119" s="22"/>
-      <c r="O119" s="22"/>
-      <c r="P119" s="22"/>
+      <c r="A119" s="19"/>
+      <c r="B119" s="19"/>
+      <c r="C119" s="19"/>
+      <c r="D119" s="20"/>
+      <c r="E119" s="21"/>
+      <c r="F119" s="22"/>
+      <c r="G119" s="21"/>
+      <c r="H119" s="23"/>
+      <c r="I119" s="24"/>
+      <c r="J119" s="24"/>
+      <c r="K119" s="24"/>
+      <c r="L119" s="19"/>
+      <c r="M119" s="25"/>
+      <c r="N119" s="19"/>
+      <c r="O119" s="19"/>
+      <c r="P119" s="19"/>
     </row>
     <row r="120" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="22"/>
-      <c r="B120" s="22"/>
-      <c r="C120" s="22"/>
-      <c r="D120" s="23"/>
-      <c r="E120" s="24"/>
-      <c r="F120" s="25"/>
-      <c r="G120" s="24"/>
-      <c r="H120" s="26"/>
-      <c r="I120" s="27"/>
-      <c r="J120" s="27"/>
-      <c r="K120" s="27"/>
-      <c r="L120" s="22"/>
-      <c r="M120" s="28"/>
-      <c r="N120" s="22"/>
-      <c r="O120" s="22"/>
-      <c r="P120" s="22"/>
+      <c r="A120" s="19"/>
+      <c r="B120" s="19"/>
+      <c r="C120" s="19"/>
+      <c r="D120" s="20"/>
+      <c r="E120" s="21"/>
+      <c r="F120" s="22"/>
+      <c r="G120" s="21"/>
+      <c r="H120" s="23"/>
+      <c r="I120" s="24"/>
+      <c r="J120" s="24"/>
+      <c r="K120" s="24"/>
+      <c r="L120" s="19"/>
+      <c r="M120" s="25"/>
+      <c r="N120" s="19"/>
+      <c r="O120" s="19"/>
+      <c r="P120" s="19"/>
     </row>
     <row r="121" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="22"/>
-      <c r="B121" s="22"/>
-      <c r="C121" s="22"/>
-      <c r="D121" s="23"/>
-      <c r="E121" s="24"/>
-      <c r="F121" s="25"/>
-      <c r="G121" s="24"/>
-      <c r="H121" s="26"/>
-      <c r="I121" s="27"/>
-      <c r="J121" s="27"/>
-      <c r="K121" s="27"/>
-      <c r="L121" s="22"/>
-      <c r="M121" s="28"/>
-      <c r="N121" s="22"/>
-      <c r="O121" s="22"/>
-      <c r="P121" s="22"/>
+      <c r="A121" s="19"/>
+      <c r="B121" s="19"/>
+      <c r="C121" s="19"/>
+      <c r="D121" s="20"/>
+      <c r="E121" s="21"/>
+      <c r="F121" s="22"/>
+      <c r="G121" s="21"/>
+      <c r="H121" s="23"/>
+      <c r="I121" s="24"/>
+      <c r="J121" s="24"/>
+      <c r="K121" s="24"/>
+      <c r="L121" s="19"/>
+      <c r="M121" s="25"/>
+      <c r="N121" s="19"/>
+      <c r="O121" s="19"/>
+      <c r="P121" s="19"/>
     </row>
     <row r="122" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="22"/>
-      <c r="B122" s="22"/>
-      <c r="C122" s="22"/>
-      <c r="D122" s="23"/>
-      <c r="E122" s="24"/>
-      <c r="F122" s="25"/>
-      <c r="G122" s="24"/>
-      <c r="H122" s="26"/>
-      <c r="I122" s="27"/>
-      <c r="J122" s="27"/>
-      <c r="K122" s="27"/>
-      <c r="L122" s="22"/>
-      <c r="M122" s="28"/>
-      <c r="N122" s="22"/>
-      <c r="O122" s="22"/>
-      <c r="P122" s="22"/>
+      <c r="A122" s="19"/>
+      <c r="B122" s="19"/>
+      <c r="C122" s="19"/>
+      <c r="D122" s="20"/>
+      <c r="E122" s="21"/>
+      <c r="F122" s="22"/>
+      <c r="G122" s="21"/>
+      <c r="H122" s="23"/>
+      <c r="I122" s="24"/>
+      <c r="J122" s="24"/>
+      <c r="K122" s="24"/>
+      <c r="L122" s="19"/>
+      <c r="M122" s="25"/>
+      <c r="N122" s="19"/>
+      <c r="O122" s="19"/>
+      <c r="P122" s="19"/>
     </row>
     <row r="123" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="22"/>
-      <c r="B123" s="22"/>
-      <c r="C123" s="22"/>
-      <c r="D123" s="23"/>
-      <c r="E123" s="24"/>
-      <c r="F123" s="25"/>
-      <c r="G123" s="24"/>
-      <c r="H123" s="26"/>
-      <c r="I123" s="27"/>
-      <c r="J123" s="27"/>
-      <c r="K123" s="27"/>
-      <c r="L123" s="22"/>
-      <c r="M123" s="28"/>
-      <c r="N123" s="22"/>
-      <c r="O123" s="22"/>
-      <c r="P123" s="22"/>
+      <c r="A123" s="19"/>
+      <c r="B123" s="19"/>
+      <c r="C123" s="19"/>
+      <c r="D123" s="20"/>
+      <c r="E123" s="21"/>
+      <c r="F123" s="22"/>
+      <c r="G123" s="21"/>
+      <c r="H123" s="23"/>
+      <c r="I123" s="24"/>
+      <c r="J123" s="24"/>
+      <c r="K123" s="24"/>
+      <c r="L123" s="19"/>
+      <c r="M123" s="25"/>
+      <c r="N123" s="19"/>
+      <c r="O123" s="19"/>
+      <c r="P123" s="19"/>
     </row>
     <row r="124" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="28"/>
-      <c r="B124" s="28"/>
-      <c r="C124" s="22"/>
-      <c r="D124" s="23"/>
-      <c r="E124" s="24"/>
-      <c r="F124" s="25"/>
-      <c r="G124" s="24"/>
-      <c r="H124" s="26"/>
-      <c r="I124" s="27"/>
-      <c r="J124" s="27"/>
-      <c r="K124" s="27"/>
-      <c r="L124" s="22"/>
-      <c r="M124" s="22"/>
-      <c r="N124" s="22"/>
-      <c r="O124" s="22"/>
-      <c r="P124" s="22"/>
+      <c r="A124" s="25"/>
+      <c r="B124" s="25"/>
+      <c r="C124" s="19"/>
+      <c r="D124" s="20"/>
+      <c r="E124" s="21"/>
+      <c r="F124" s="22"/>
+      <c r="G124" s="21"/>
+      <c r="H124" s="23"/>
+      <c r="I124" s="24"/>
+      <c r="J124" s="24"/>
+      <c r="K124" s="24"/>
+      <c r="L124" s="19"/>
+      <c r="M124" s="19"/>
+      <c r="N124" s="19"/>
+      <c r="O124" s="19"/>
+      <c r="P124" s="19"/>
     </row>
     <row r="125" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="22"/>
-      <c r="B125" s="22"/>
-      <c r="C125" s="22"/>
-      <c r="D125" s="23"/>
-      <c r="E125" s="24"/>
-      <c r="F125" s="25"/>
-      <c r="G125" s="24"/>
-      <c r="H125" s="26"/>
-      <c r="I125" s="27"/>
-      <c r="J125" s="27"/>
-      <c r="K125" s="27"/>
-      <c r="L125" s="22"/>
-      <c r="M125" s="28"/>
-      <c r="N125" s="22"/>
-      <c r="O125" s="22"/>
-      <c r="P125" s="22"/>
+      <c r="A125" s="19"/>
+      <c r="B125" s="19"/>
+      <c r="C125" s="19"/>
+      <c r="D125" s="20"/>
+      <c r="E125" s="21"/>
+      <c r="F125" s="22"/>
+      <c r="G125" s="21"/>
+      <c r="H125" s="23"/>
+      <c r="I125" s="24"/>
+      <c r="J125" s="24"/>
+      <c r="K125" s="24"/>
+      <c r="L125" s="19"/>
+      <c r="M125" s="25"/>
+      <c r="N125" s="19"/>
+      <c r="O125" s="19"/>
+      <c r="P125" s="19"/>
     </row>
     <row r="1048445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
